--- a/EO-EC-TA-full/Fz-full.xlsx
+++ b/EO-EC-TA-full/Fz-full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\EO-EC-TA-full\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{204F0B89-A733-4E2A-9365-F2DD8281E3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FA33B7-749F-4307-A90B-FEAA8F048997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4327162D-5957-49A5-8E6F-71FCD95629CA}"/>
   </bookViews>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3DC081-F2D7-4839-A1B8-5BD45E3DE404}">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:L145"/>
+    <sheetView tabSelected="1" zoomScale="43" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,23 +529,23 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3">
-        <v>40.413623999882937</v>
-      </c>
-      <c r="C2" s="3">
-        <v>9.9093195003821322</v>
-      </c>
-      <c r="D2" s="3">
-        <v>5.9383337870782498</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4.9524448899926146</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2.1432267360715418</v>
+      <c r="B2" s="4">
+        <v>55.034208221574858</v>
+      </c>
+      <c r="C2" s="4">
+        <v>23.84697915536405</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5.5669656129748333</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.4630236909208989</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.0497133565824051</v>
       </c>
       <c r="G2">
-        <v>63.356948913407479</v>
+        <v>87.960890037417045</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -554,36 +554,36 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3">
-        <v>11.968000244397141</v>
-      </c>
-      <c r="C3" s="3">
-        <v>9.6852369554348314</v>
-      </c>
-      <c r="D3" s="3">
-        <v>10.39408386313311</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3.7781643365870878</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.5183422581616242</v>
+      <c r="B3" s="4">
+        <v>18.333959309279059</v>
+      </c>
+      <c r="C3" s="4">
+        <v>23.972882751907861</v>
+      </c>
+      <c r="D3" s="4">
+        <v>18.239155699361341</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4.265969704773994</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.5869917468251931</v>
       </c>
       <c r="G3">
-        <v>38.343827657713788</v>
+        <v>66.398959212147446</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -605,23 +605,23 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
-        <v>112.6052290895706</v>
-      </c>
-      <c r="C4" s="3">
-        <v>31.76567015145239</v>
-      </c>
-      <c r="D4" s="3">
-        <v>19.76984296621907</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5.4019168690571329</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2.6212719754802869</v>
+      <c r="B4" s="4">
+        <v>200.44346361564399</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43.406973338423413</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7.0698062511590658</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.0674476493075131</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.7130977859858509</v>
       </c>
       <c r="G4">
-        <v>172.16393105177951</v>
+        <v>255.70078864051979</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="J4">
+        <v>26</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -644,22 +644,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>52.603944394829149</v>
+        <v>70.174028119550215</v>
       </c>
       <c r="C5" s="3">
-        <v>12.840587415725411</v>
+        <v>14.00815996968036</v>
       </c>
       <c r="D5" s="3">
-        <v>18.363245322156391</v>
+        <v>4.1317407141332447</v>
       </c>
       <c r="E5" s="3">
-        <v>3.80533256354687</v>
+        <v>2.785829972137404</v>
       </c>
       <c r="F5" s="3">
-        <v>2.622079838498482</v>
+        <v>1.96620427878864</v>
       </c>
       <c r="G5">
-        <v>90.235189534756287</v>
+        <v>93.065963054289867</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -682,22 +682,22 @@
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>21.90501818461593</v>
+        <v>1447.8475771571541</v>
       </c>
       <c r="C6" s="3">
-        <v>11.525643960556909</v>
+        <v>95.571715181976117</v>
       </c>
       <c r="D6" s="3">
-        <v>7.3090393693594926</v>
+        <v>11.642852558136211</v>
       </c>
       <c r="E6" s="3">
-        <v>3.616341032515177</v>
+        <v>3.8710240327308658</v>
       </c>
       <c r="F6" s="3">
-        <v>2.6629529861161259</v>
+        <v>2.0158400748474068</v>
       </c>
       <c r="G6">
-        <v>47.018995533163633</v>
+        <v>1560.949009004845</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -706,36 +706,36 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
-        <v>5.5093919176890234</v>
-      </c>
-      <c r="C7" s="3">
-        <v>48.080501954451293</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2.4720625401716392</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3.282314731599719</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2.7419030120211252</v>
+      <c r="B7" s="4">
+        <v>18.892572186365161</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7.1816757821506636</v>
+      </c>
+      <c r="D7" s="4">
+        <v>15.716593129695861</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5.355839022604628</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.0206469030420142</v>
       </c>
       <c r="G7">
-        <v>62.08617415593281</v>
+        <v>49.167327023858327</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -744,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
       </c>
       <c r="L7" t="s">
         <v>12</v>
@@ -757,23 +757,23 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
-        <v>5.4703625167417984</v>
-      </c>
-      <c r="C8" s="3">
-        <v>43.505160827726009</v>
-      </c>
-      <c r="D8" s="3">
-        <v>17.489887815593988</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.9113205655878591</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2.7520106135595719</v>
+      <c r="B8" s="4">
+        <v>34.767996406571307</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7.6228398885045081</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4.1838908412029241</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.948352707411682</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.0233343803785062</v>
       </c>
       <c r="G8">
-        <v>74.128742339209225</v>
+        <v>51.54641422406894</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -782,13 +782,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -796,22 +796,22 @@
         <v>11</v>
       </c>
       <c r="B9" s="3">
-        <v>14.70229467945008</v>
+        <v>121.4478995229852</v>
       </c>
       <c r="C9" s="3">
-        <v>59.994309973934953</v>
+        <v>20.98497306022281</v>
       </c>
       <c r="D9" s="3">
-        <v>3.274009567808537</v>
+        <v>4.9355100024080851</v>
       </c>
       <c r="E9" s="3">
-        <v>4.9492191862102217</v>
+        <v>3.1762504335233199</v>
       </c>
       <c r="F9" s="3">
-        <v>2.882200262177339</v>
+        <v>2.0850010924806242</v>
       </c>
       <c r="G9">
-        <v>85.802033669581135</v>
+        <v>152.62963411161991</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -820,36 +820,36 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
-        <v>29.014958633428211</v>
-      </c>
-      <c r="C10" s="3">
-        <v>13.655939255035291</v>
-      </c>
-      <c r="D10" s="3">
-        <v>12.216340422081251</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4.474666455402585</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3.324211138750822</v>
+      <c r="B10" s="4">
+        <v>51.412380722758087</v>
+      </c>
+      <c r="C10" s="4">
+        <v>30.512945135903241</v>
+      </c>
+      <c r="D10" s="4">
+        <v>13.909500767527931</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.6152258158510326</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.1001298139249251</v>
       </c>
       <c r="G10">
-        <v>62.686115904698148</v>
+        <v>102.5501822559653</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>28.653437428263292</v>
+        <v>40.413623999882937</v>
       </c>
       <c r="C11" s="3">
-        <v>20.74362495988294</v>
+        <v>9.9093195003821322</v>
       </c>
       <c r="D11" s="3">
-        <v>76.810362297554903</v>
+        <v>5.9383337870782498</v>
       </c>
       <c r="E11" s="3">
-        <v>8.9328623738490247</v>
+        <v>4.9524448899926146</v>
       </c>
       <c r="F11" s="3">
-        <v>3.373893239639234</v>
+        <v>2.1432267360715418</v>
       </c>
       <c r="G11">
-        <v>138.51418029918941</v>
+        <v>63.356948913407479</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -909,23 +909,23 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>8.2162332624923877</v>
-      </c>
-      <c r="C12" s="3">
-        <v>60.78571601409778</v>
-      </c>
-      <c r="D12" s="3">
-        <v>3.9235335423698339</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4.061861596181263</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3.4639744795874701</v>
+      <c r="B12" s="4">
+        <v>9.6910012286348284</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9.339660265038102</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6.5690485984475799</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.0091441934155521</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2.1505763751604068</v>
       </c>
       <c r="G12">
-        <v>80.451318894728701</v>
+        <v>30.75943066069647</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -934,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>23</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -948,22 +948,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>37.957696945653453</v>
+        <v>161.94724031020101</v>
       </c>
       <c r="C13" s="3">
-        <v>33.1518082021596</v>
+        <v>14.591031735144091</v>
       </c>
       <c r="D13" s="3">
-        <v>64.25101924098459</v>
+        <v>10.43171312714939</v>
       </c>
       <c r="E13" s="3">
-        <v>6.8776559950715601</v>
+        <v>3.560744646719296</v>
       </c>
       <c r="F13" s="3">
-        <v>3.542880573929799</v>
+        <v>2.1568300294611951</v>
       </c>
       <c r="G13">
-        <v>145.78106095779901</v>
+        <v>192.68755984867499</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -972,36 +972,36 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
-        <v>104.35420161731641</v>
-      </c>
-      <c r="C14" s="3">
-        <v>15.466965250396591</v>
-      </c>
-      <c r="D14" s="3">
-        <v>34.020233332170577</v>
-      </c>
-      <c r="E14" s="3">
-        <v>6.627029467203819</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3.770312991658793</v>
+      <c r="B14" s="4">
+        <v>16.038965583051109</v>
+      </c>
+      <c r="C14" s="4">
+        <v>25.503093117142061</v>
+      </c>
+      <c r="D14" s="4">
+        <v>19.25442154418867</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.1952522371325358</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2.2407398008541688</v>
       </c>
       <c r="G14">
-        <v>164.23874265874619</v>
+        <v>67.232472282368548</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -1010,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
       </c>
       <c r="L14" t="s">
         <v>12</v>
@@ -1023,23 +1023,23 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
-        <v>33.981931617107847</v>
-      </c>
-      <c r="C15" s="3">
-        <v>146.53855310867621</v>
-      </c>
-      <c r="D15" s="3">
-        <v>52.189822974434243</v>
-      </c>
-      <c r="E15" s="3">
-        <v>8.2278884169703073</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4.3255701052437896</v>
+      <c r="B15" s="4">
+        <v>81.840046467490723</v>
+      </c>
+      <c r="C15" s="4">
+        <v>31.591245363826481</v>
+      </c>
+      <c r="D15" s="4">
+        <v>13.42166400596745</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4.1596275688496158</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2.2609561414596171</v>
       </c>
       <c r="G15">
-        <v>245.26376622243251</v>
+        <v>133.2735395475938</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1048,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>20</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1062,22 +1062,22 @@
         <v>11</v>
       </c>
       <c r="B16" s="3">
-        <v>9.0921230331212399</v>
+        <v>43.561106213513057</v>
       </c>
       <c r="C16" s="3">
-        <v>63.422715978375187</v>
+        <v>9.331218350894968</v>
       </c>
       <c r="D16" s="3">
-        <v>21.62191706098557</v>
+        <v>3.934142966491303</v>
       </c>
       <c r="E16" s="3">
-        <v>7.5608072101077344</v>
+        <v>4.3128880708056938</v>
       </c>
       <c r="F16" s="3">
-        <v>4.3482002955881569</v>
+        <v>2.2796325985805699</v>
       </c>
       <c r="G16">
-        <v>106.0457635781779</v>
+        <v>63.418988200285582</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1086,36 +1086,36 @@
         <v>0</v>
       </c>
       <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
         <v>13</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="3">
-        <v>56.41532783545064</v>
-      </c>
-      <c r="C17" s="3">
-        <v>15.04551730374364</v>
-      </c>
-      <c r="D17" s="3">
-        <v>15.88768676838578</v>
-      </c>
-      <c r="E17" s="3">
-        <v>10.178686488560411</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4.7372025484601856</v>
+      <c r="B17" s="4">
+        <v>61.083300377795133</v>
+      </c>
+      <c r="C17" s="4">
+        <v>46.511110722748079</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3.3364070516112281</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2.611486366569141</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2.3783928461746151</v>
       </c>
       <c r="G17">
-        <v>102.2644209446007</v>
+        <v>115.9206973648982</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1124,13 +1124,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1138,22 +1138,22 @@
         <v>11</v>
       </c>
       <c r="B18" s="3">
-        <v>15.666107357819209</v>
+        <v>11.887918144826161</v>
       </c>
       <c r="C18" s="3">
-        <v>140.8371935642372</v>
+        <v>38.276616579952552</v>
       </c>
       <c r="D18" s="3">
-        <v>36.407821461804161</v>
+        <v>2.6006060841361598</v>
       </c>
       <c r="E18" s="3">
-        <v>7.0240918140004291</v>
+        <v>3.5078871844994</v>
       </c>
       <c r="F18" s="3">
-        <v>5.4434224687519839</v>
+        <v>2.4540772489920171</v>
       </c>
       <c r="G18">
-        <v>205.37863666661309</v>
+        <v>58.727105242406267</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1162,36 +1162,36 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="3">
-        <v>47.08694230455302</v>
-      </c>
-      <c r="C19" s="3">
-        <v>31.601684398098829</v>
-      </c>
-      <c r="D19" s="3">
-        <v>80.569699097757677</v>
-      </c>
-      <c r="E19" s="3">
-        <v>14.5777399052324</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5.5576696602984494</v>
+      <c r="B19" s="4">
+        <v>53.909811504158441</v>
+      </c>
+      <c r="C19" s="4">
+        <v>23.74798415524284</v>
+      </c>
+      <c r="D19" s="4">
+        <v>11.129574018692169</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3.8197670838209592</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2.4960360791208558</v>
       </c>
       <c r="G19">
-        <v>179.39373536594039</v>
+        <v>95.103172841035246</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1214,22 +1214,22 @@
         <v>11</v>
       </c>
       <c r="B20" s="3">
-        <v>194.45031417342051</v>
+        <v>11.968000244397141</v>
       </c>
       <c r="C20" s="3">
-        <v>397.09093756450739</v>
+        <v>9.6852369554348314</v>
       </c>
       <c r="D20" s="3">
-        <v>12.082000006656941</v>
+        <v>10.39408386313311</v>
       </c>
       <c r="E20" s="3">
-        <v>7.6160491457971711</v>
+        <v>3.7781643365870878</v>
       </c>
       <c r="F20" s="3">
-        <v>5.7112539602341492</v>
+        <v>2.5183422581616242</v>
       </c>
       <c r="G20">
-        <v>616.95055485061607</v>
+        <v>38.343827657713788</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1252,22 +1252,22 @@
         <v>11</v>
       </c>
       <c r="B21" s="3">
-        <v>8.0002582868115208</v>
+        <v>84.84550147925809</v>
       </c>
       <c r="C21" s="3">
-        <v>96.580938365881551</v>
+        <v>15.56803049830283</v>
       </c>
       <c r="D21" s="3">
-        <v>25.367079689751151</v>
+        <v>7.1317108975695618</v>
       </c>
       <c r="E21" s="3">
-        <v>7.505082886188629</v>
+        <v>2.7361095708026948</v>
       </c>
       <c r="F21" s="3">
-        <v>6.7832139497230823</v>
+        <v>2.616003912004615</v>
       </c>
       <c r="G21">
-        <v>144.23657317835591</v>
+        <v>112.8973563579378</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1276,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1290,22 +1290,22 @@
         <v>11</v>
       </c>
       <c r="B22" s="3">
-        <v>11.60878205115254</v>
+        <v>112.6052290895706</v>
       </c>
       <c r="C22" s="3">
-        <v>149.99160785410041</v>
+        <v>31.76567015145239</v>
       </c>
       <c r="D22" s="3">
-        <v>30.75879643044755</v>
+        <v>19.76984296621907</v>
       </c>
       <c r="E22" s="3">
-        <v>7.9295680383965443</v>
+        <v>5.4019168690571329</v>
       </c>
       <c r="F22" s="3">
-        <v>10.512743913952731</v>
+        <v>2.6212719754802869</v>
       </c>
       <c r="G22">
-        <v>210.80149828804969</v>
+        <v>172.16393105177951</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1328,22 +1328,22 @@
         <v>11</v>
       </c>
       <c r="B23" s="3">
-        <v>1967.7680676172349</v>
+        <v>52.603944394829149</v>
       </c>
       <c r="C23" s="3">
-        <v>257.77398406220408</v>
+        <v>12.840587415725411</v>
       </c>
       <c r="D23" s="3">
-        <v>111.20915990665149</v>
+        <v>18.363245322156391</v>
       </c>
       <c r="E23" s="3">
-        <v>50.519247715097833</v>
+        <v>3.80533256354687</v>
       </c>
       <c r="F23" s="3">
-        <v>18.608184485772199</v>
+        <v>2.622079838498482</v>
       </c>
       <c r="G23">
-        <v>2405.8786437869599</v>
+        <v>90.235189534756287</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1366,22 +1366,22 @@
         <v>11</v>
       </c>
       <c r="B24" s="3">
-        <v>70.174028119550215</v>
+        <v>21.90501818461593</v>
       </c>
       <c r="C24" s="3">
-        <v>14.00815996968036</v>
+        <v>11.525643960556909</v>
       </c>
       <c r="D24" s="3">
-        <v>4.1317407141332447</v>
+        <v>7.3090393693594926</v>
       </c>
       <c r="E24" s="3">
-        <v>2.785829972137404</v>
+        <v>3.616341032515177</v>
       </c>
       <c r="F24" s="3">
-        <v>1.96620427878864</v>
+        <v>2.6629529861161259</v>
       </c>
       <c r="G24">
-        <v>93.065963054289867</v>
+        <v>47.018995533163633</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1390,13 +1390,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1404,22 +1404,22 @@
         <v>11</v>
       </c>
       <c r="B25" s="3">
-        <v>161.94724031020101</v>
+        <v>5.5093919176890234</v>
       </c>
       <c r="C25" s="3">
-        <v>14.591031735144091</v>
+        <v>48.080501954451293</v>
       </c>
       <c r="D25" s="3">
-        <v>10.43171312714939</v>
+        <v>2.4720625401716392</v>
       </c>
       <c r="E25" s="3">
-        <v>3.560744646719296</v>
+        <v>3.282314731599719</v>
       </c>
       <c r="F25" s="3">
-        <v>2.1568300294611951</v>
+        <v>2.7419030120211252</v>
       </c>
       <c r="G25">
-        <v>192.68755984867499</v>
+        <v>62.08617415593281</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1428,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1442,22 +1442,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3">
-        <v>43.561106213513057</v>
+        <v>5.4703625167417984</v>
       </c>
       <c r="C26" s="3">
-        <v>9.331218350894968</v>
+        <v>43.505160827726009</v>
       </c>
       <c r="D26" s="3">
-        <v>3.934142966491303</v>
+        <v>17.489887815593988</v>
       </c>
       <c r="E26" s="3">
-        <v>4.3128880708056938</v>
+        <v>4.9113205655878591</v>
       </c>
       <c r="F26" s="3">
-        <v>2.2796325985805699</v>
+        <v>2.7520106135595719</v>
       </c>
       <c r="G26">
-        <v>63.418988200285582</v>
+        <v>74.128742339209225</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1466,36 +1466,36 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="3">
-        <v>11.887918144826161</v>
-      </c>
-      <c r="C27" s="3">
-        <v>38.276616579952552</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2.6006060841361598</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3.5078871844994</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2.4540772489920171</v>
+      <c r="B27" s="4">
+        <v>84.441989334612373</v>
+      </c>
+      <c r="C27" s="4">
+        <v>11.30158106540107</v>
+      </c>
+      <c r="D27" s="4">
+        <v>4.9492480998514141</v>
+      </c>
+      <c r="E27" s="4">
+        <v>4.0176782008956504</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2.7906677617758922</v>
       </c>
       <c r="G27">
-        <v>58.727105242406267</v>
+        <v>107.50116446253639</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1504,36 +1504,36 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>16</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="3">
-        <v>84.84550147925809</v>
-      </c>
-      <c r="C28" s="3">
-        <v>15.56803049830283</v>
-      </c>
-      <c r="D28" s="3">
-        <v>7.1317108975695618</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2.7361095708026948</v>
-      </c>
-      <c r="F28" s="3">
-        <v>2.616003912004615</v>
+      <c r="B28" s="4">
+        <v>21.21113392278664</v>
+      </c>
+      <c r="C28" s="4">
+        <v>7.6146539416327617</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2.896223508986326</v>
+      </c>
+      <c r="E28" s="4">
+        <v>7.7921746186866807</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2.8328848149401908</v>
       </c>
       <c r="G28">
-        <v>112.8973563579378</v>
+        <v>42.347070807032608</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1542,36 +1542,36 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>22</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="3">
-        <v>57.819864599757139</v>
-      </c>
-      <c r="C29" s="3">
-        <v>16.027186266080111</v>
-      </c>
-      <c r="D29" s="3">
-        <v>19.056683412454571</v>
-      </c>
-      <c r="E29" s="3">
-        <v>7.0363437839061369</v>
-      </c>
-      <c r="F29" s="3">
-        <v>2.8933513405945699</v>
+      <c r="B29" s="4">
+        <v>460.90870869925971</v>
+      </c>
+      <c r="C29" s="4">
+        <v>45.851947405586003</v>
+      </c>
+      <c r="D29" s="4">
+        <v>10.664258910599649</v>
+      </c>
+      <c r="E29" s="4">
+        <v>4.8541179117512447</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2.8342727539105899</v>
       </c>
       <c r="G29">
-        <v>102.8334294027925</v>
+        <v>525.11330568110725</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1582,8 +1582,8 @@
       <c r="J29">
         <v>18</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="4">
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>13</v>
@@ -1594,22 +1594,22 @@
         <v>11</v>
       </c>
       <c r="B30" s="3">
-        <v>5.3625426817265733</v>
+        <v>14.70229467945008</v>
       </c>
       <c r="C30" s="3">
-        <v>53.535706626395793</v>
+        <v>59.994309973934953</v>
       </c>
       <c r="D30" s="3">
-        <v>2.417176511364854</v>
+        <v>3.274009567808537</v>
       </c>
       <c r="E30" s="3">
-        <v>3.3086649891911439</v>
+        <v>4.9492191862102217</v>
       </c>
       <c r="F30" s="3">
-        <v>2.96743721723072</v>
+        <v>2.882200262177339</v>
       </c>
       <c r="G30">
-        <v>67.591528025909085</v>
+        <v>85.802033669581135</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K30" s="3">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -1632,22 +1632,22 @@
         <v>11</v>
       </c>
       <c r="B31" s="3">
-        <v>45.938829796410552</v>
+        <v>57.819864599757139</v>
       </c>
       <c r="C31" s="3">
-        <v>70.796828887217174</v>
+        <v>16.027186266080111</v>
       </c>
       <c r="D31" s="3">
-        <v>8.5839436139032621</v>
+        <v>19.056683412454571</v>
       </c>
       <c r="E31" s="3">
-        <v>5.9346196628420893</v>
+        <v>7.0363437839061369</v>
       </c>
       <c r="F31" s="3">
-        <v>3.0929457424787601</v>
+        <v>2.8933513405945699</v>
       </c>
       <c r="G31">
-        <v>134.34716770285189</v>
+        <v>102.8334294027925</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K31" s="3">
         <v>0</v>
@@ -1669,23 +1669,23 @@
       <c r="A32" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="3">
-        <v>36.137899920012792</v>
-      </c>
-      <c r="C32" s="3">
-        <v>26.438872764379269</v>
-      </c>
-      <c r="D32" s="3">
-        <v>31.978311707311061</v>
-      </c>
-      <c r="E32" s="3">
-        <v>5.7796854951362047</v>
-      </c>
-      <c r="F32" s="3">
-        <v>3.457879408760244</v>
+      <c r="B32" s="4">
+        <v>20.478365601344311</v>
+      </c>
+      <c r="C32" s="4">
+        <v>9.0258196897702234</v>
+      </c>
+      <c r="D32" s="4">
+        <v>7.5588765316337927</v>
+      </c>
+      <c r="E32" s="4">
+        <v>5.8967404496160949</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2.9269993932031282</v>
       </c>
       <c r="G32">
-        <v>103.7926492955995</v>
+        <v>45.88680166556756</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1694,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1</v>
       </c>
       <c r="L32" t="s">
         <v>13</v>
@@ -1708,22 +1708,22 @@
         <v>11</v>
       </c>
       <c r="B33" s="3">
-        <v>149.24077604651171</v>
+        <v>5.3625426817265733</v>
       </c>
       <c r="C33" s="3">
-        <v>21.134375887163291</v>
+        <v>53.535706626395793</v>
       </c>
       <c r="D33" s="3">
-        <v>14.34126678827716</v>
+        <v>2.417176511364854</v>
       </c>
       <c r="E33" s="3">
-        <v>5.6390471443758594</v>
+        <v>3.3086649891911439</v>
       </c>
       <c r="F33" s="3">
-        <v>3.7563041545964961</v>
+        <v>2.96743721723072</v>
       </c>
       <c r="G33">
-        <v>194.1117700209245</v>
+        <v>67.591528025909085</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -1746,22 +1746,22 @@
         <v>11</v>
       </c>
       <c r="B34" s="3">
-        <v>28.4699101218945</v>
+        <v>45.938829796410552</v>
       </c>
       <c r="C34" s="3">
-        <v>59.715474689726449</v>
+        <v>70.796828887217174</v>
       </c>
       <c r="D34" s="3">
-        <v>4.821911295384016</v>
+        <v>8.5839436139032621</v>
       </c>
       <c r="E34" s="3">
-        <v>6.0013637975136973</v>
+        <v>5.9346196628420893</v>
       </c>
       <c r="F34" s="3">
-        <v>3.8680344281622281</v>
+        <v>3.0929457424787601</v>
       </c>
       <c r="G34">
-        <v>102.8766943326809</v>
+        <v>134.34716770285189</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
@@ -1783,23 +1783,23 @@
       <c r="A35" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="3">
-        <v>9.38597394958704</v>
-      </c>
-      <c r="C35" s="3">
-        <v>49.97431450824503</v>
-      </c>
-      <c r="D35" s="3">
-        <v>5.6927114920315356</v>
-      </c>
-      <c r="E35" s="3">
-        <v>5.8382939273877712</v>
-      </c>
-      <c r="F35" s="3">
-        <v>4.2953752136978611</v>
+      <c r="B35" s="4">
+        <v>8.604533876333047</v>
+      </c>
+      <c r="C35" s="4">
+        <v>9.8574541951209813</v>
+      </c>
+      <c r="D35" s="4">
+        <v>9.2944277815176726</v>
+      </c>
+      <c r="E35" s="4">
+        <v>4.4370837065041346</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3.1166416915609179</v>
       </c>
       <c r="G35">
-        <v>75.186669090949238</v>
+        <v>35.310141251036747</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1808,36 +1808,36 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>13</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="3">
-        <v>26.022695214489751</v>
-      </c>
-      <c r="C36" s="3">
-        <v>84.373684120143224</v>
-      </c>
-      <c r="D36" s="3">
-        <v>5.3928319327038183</v>
-      </c>
-      <c r="E36" s="3">
-        <v>4.5219591400424184</v>
-      </c>
-      <c r="F36" s="3">
-        <v>4.3097189865692567</v>
+      <c r="B36" s="4">
+        <v>16.40065444514283</v>
+      </c>
+      <c r="C36" s="4">
+        <v>10.1978866809477</v>
+      </c>
+      <c r="D36" s="4">
+        <v>9.965651540558417</v>
+      </c>
+      <c r="E36" s="4">
+        <v>5.7414769733448283</v>
+      </c>
+      <c r="F36" s="4">
+        <v>3.3060553988782422</v>
       </c>
       <c r="G36">
-        <v>124.6208893939485</v>
+        <v>45.611725038872009</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>24</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -1860,22 +1860,22 @@
         <v>11</v>
       </c>
       <c r="B37" s="3">
-        <v>7.8569824231420089</v>
+        <v>29.014958633428211</v>
       </c>
       <c r="C37" s="3">
-        <v>116.3582668722006</v>
+        <v>13.655939255035291</v>
       </c>
       <c r="D37" s="3">
-        <v>4.6835301544247283</v>
+        <v>12.216340422081251</v>
       </c>
       <c r="E37" s="3">
-        <v>4.5067339054243138</v>
+        <v>4.474666455402585</v>
       </c>
       <c r="F37" s="3">
-        <v>4.4335440630056748</v>
+        <v>3.324211138750822</v>
       </c>
       <c r="G37">
-        <v>137.83905741819731</v>
+        <v>62.686115904698148</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1884,13 +1884,13 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -1898,22 +1898,22 @@
         <v>11</v>
       </c>
       <c r="B38" s="3">
-        <v>24.421993036219519</v>
+        <v>28.653437428263292</v>
       </c>
       <c r="C38" s="3">
-        <v>8.8670530047517158</v>
+        <v>20.74362495988294</v>
       </c>
       <c r="D38" s="3">
-        <v>5.8593510270445481</v>
+        <v>76.810362297554903</v>
       </c>
       <c r="E38" s="3">
-        <v>4.1592214157487799</v>
+        <v>8.9328623738490247</v>
       </c>
       <c r="F38" s="3">
-        <v>4.6772847753228088</v>
+        <v>3.373893239639234</v>
       </c>
       <c r="G38">
-        <v>47.984903259087368</v>
+        <v>138.51418029918941</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1922,13 +1922,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="K38" s="3">
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -1936,22 +1936,22 @@
         <v>11</v>
       </c>
       <c r="B39" s="3">
-        <v>72.593776317983753</v>
+        <v>11.45093683135468</v>
       </c>
       <c r="C39" s="3">
-        <v>16.25205251720763</v>
+        <v>56.856561472887719</v>
       </c>
       <c r="D39" s="3">
-        <v>10.369052136662891</v>
+        <v>8.6252219279178544</v>
       </c>
       <c r="E39" s="3">
-        <v>6.5126793270502654</v>
+        <v>5.6333719409254188</v>
       </c>
       <c r="F39" s="3">
-        <v>4.7862609164514813</v>
+        <v>3.4013306622569388</v>
       </c>
       <c r="G39">
-        <v>110.513821215356</v>
+        <v>85.967422835342589</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1960,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K39" s="3">
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -1974,22 +1974,22 @@
         <v>11</v>
       </c>
       <c r="B40" s="3">
-        <v>47.766278629803999</v>
+        <v>36.137899920012792</v>
       </c>
       <c r="C40" s="3">
-        <v>17.346238728272908</v>
+        <v>26.438872764379269</v>
       </c>
       <c r="D40" s="3">
-        <v>5.9288599378187756</v>
+        <v>31.978311707311061</v>
       </c>
       <c r="E40" s="3">
-        <v>4.4537291574793842</v>
+        <v>5.7796854951362047</v>
       </c>
       <c r="F40" s="3">
-        <v>4.8066222629495918</v>
+        <v>3.457879408760244</v>
       </c>
       <c r="G40">
-        <v>80.301728716324646</v>
+        <v>103.7926492955995</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
@@ -2012,22 +2012,22 @@
         <v>11</v>
       </c>
       <c r="B41" s="3">
-        <v>29.207329106617809</v>
+        <v>8.2162332624923877</v>
       </c>
       <c r="C41" s="3">
-        <v>10.66113521634626</v>
+        <v>60.78571601409778</v>
       </c>
       <c r="D41" s="3">
-        <v>6.6960443079058862</v>
+        <v>3.9235335423698339</v>
       </c>
       <c r="E41" s="3">
-        <v>4.0207305552663124</v>
+        <v>4.061861596181263</v>
       </c>
       <c r="F41" s="3">
-        <v>6.1577705511782241</v>
+        <v>3.4639744795874701</v>
       </c>
       <c r="G41">
-        <v>56.743009737314487</v>
+        <v>80.451318894728701</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2036,13 +2036,13 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2050,22 +2050,22 @@
         <v>11</v>
       </c>
       <c r="B42" s="3">
-        <v>135.25282459247609</v>
+        <v>37.957696945653453</v>
       </c>
       <c r="C42" s="3">
-        <v>228.08121843853121</v>
+        <v>33.1518082021596</v>
       </c>
       <c r="D42" s="3">
-        <v>8.1697858224302049</v>
+        <v>64.25101924098459</v>
       </c>
       <c r="E42" s="3">
-        <v>7.546310918270394</v>
+        <v>6.8776559950715601</v>
       </c>
       <c r="F42" s="3">
-        <v>6.9119046659889261</v>
+        <v>3.542880573929799</v>
       </c>
       <c r="G42">
-        <v>385.96204443769682</v>
+        <v>145.78106095779901</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2074,36 +2074,36 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="3">
-        <v>67.411419726009001</v>
-      </c>
-      <c r="C43" s="3">
-        <v>91.188503773579058</v>
-      </c>
-      <c r="D43" s="3">
-        <v>18.89676677592805</v>
-      </c>
-      <c r="E43" s="3">
-        <v>7.1988440188194334</v>
-      </c>
-      <c r="F43" s="3">
-        <v>7.6644114073503964</v>
+      <c r="B43" s="4">
+        <v>13.92663546499969</v>
+      </c>
+      <c r="C43" s="4">
+        <v>7.1404638989137839</v>
+      </c>
+      <c r="D43" s="4">
+        <v>19.177143964877779</v>
+      </c>
+      <c r="E43" s="4">
+        <v>6.6358386726821799</v>
+      </c>
+      <c r="F43" s="4">
+        <v>3.749329200519516</v>
       </c>
       <c r="G43">
-        <v>192.359945701686</v>
+        <v>50.629411201992959</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2112,13 +2112,13 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>20</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2126,22 +2126,22 @@
         <v>11</v>
       </c>
       <c r="B44" s="3">
-        <v>181.94475399046169</v>
+        <v>149.24077604651171</v>
       </c>
       <c r="C44" s="3">
-        <v>52.66420890134038</v>
+        <v>21.134375887163291</v>
       </c>
       <c r="D44" s="3">
-        <v>20.860980646772362</v>
+        <v>14.34126678827716</v>
       </c>
       <c r="E44" s="3">
-        <v>16.57017272887057</v>
+        <v>5.6390471443758594</v>
       </c>
       <c r="F44" s="3">
-        <v>7.9566931550348086</v>
+        <v>3.7563041545964961</v>
       </c>
       <c r="G44">
-        <v>279.99680942247983</v>
+        <v>194.1117700209245</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2164,22 +2164,22 @@
         <v>11</v>
       </c>
       <c r="B45" s="3">
-        <v>9.8281262261727864</v>
+        <v>104.35420161731641</v>
       </c>
       <c r="C45" s="3">
-        <v>63.800350993810127</v>
+        <v>15.466965250396591</v>
       </c>
       <c r="D45" s="3">
-        <v>5.5398545345823154</v>
+        <v>34.020233332170577</v>
       </c>
       <c r="E45" s="3">
-        <v>8.5510736294340006</v>
+        <v>6.627029467203819</v>
       </c>
       <c r="F45" s="3">
-        <v>12.906008277374021</v>
+        <v>3.770312991658793</v>
       </c>
       <c r="G45">
-        <v>100.6254136613732</v>
+        <v>164.23874265874619</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2188,13 +2188,13 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2202,22 +2202,22 @@
         <v>11</v>
       </c>
       <c r="B46" s="3">
-        <v>78.914781174259019</v>
+        <v>13.014920578093831</v>
       </c>
       <c r="C46" s="3">
-        <v>39.326835933430473</v>
+        <v>74.301919472006034</v>
       </c>
       <c r="D46" s="3">
-        <v>67.853694229196975</v>
+        <v>4.7221807476105493</v>
       </c>
       <c r="E46" s="3">
-        <v>34.959288277585237</v>
+        <v>5.2259256728838723</v>
       </c>
       <c r="F46" s="3">
-        <v>44.26252245163807</v>
+        <v>3.8202159245342249</v>
       </c>
       <c r="G46">
-        <v>265.31712206610968</v>
+        <v>101.08516239512851</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2226,13 +2226,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -2240,22 +2240,22 @@
         <v>11</v>
       </c>
       <c r="B47" s="3">
-        <v>1447.8475771571541</v>
+        <v>28.4699101218945</v>
       </c>
       <c r="C47" s="3">
-        <v>95.571715181976117</v>
+        <v>59.715474689726449</v>
       </c>
       <c r="D47" s="3">
-        <v>11.642852558136211</v>
+        <v>4.821911295384016</v>
       </c>
       <c r="E47" s="3">
-        <v>3.8710240327308658</v>
+        <v>6.0013637975136973</v>
       </c>
       <c r="F47" s="3">
-        <v>2.0158400748474068</v>
+        <v>3.8680344281622281</v>
       </c>
       <c r="G47">
-        <v>1560.949009004845</v>
+        <v>102.8766943326809</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2264,36 +2264,36 @@
         <v>0</v>
       </c>
       <c r="J47">
+        <v>6</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
         <v>13</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="3">
-        <v>121.4478995229852</v>
-      </c>
-      <c r="C48" s="3">
-        <v>20.98497306022281</v>
-      </c>
-      <c r="D48" s="3">
-        <v>4.9355100024080851</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3.1762504335233199</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2.0850010924806242</v>
+      <c r="B48" s="4">
+        <v>23.123191484985291</v>
+      </c>
+      <c r="C48" s="4">
+        <v>28.966566902681642</v>
+      </c>
+      <c r="D48" s="4">
+        <v>128.78071092559821</v>
+      </c>
+      <c r="E48" s="4">
+        <v>12.93968839380171</v>
+      </c>
+      <c r="F48" s="4">
+        <v>3.9661533301009189</v>
       </c>
       <c r="G48">
-        <v>152.62963411161991</v>
+        <v>197.77631103716769</v>
       </c>
       <c r="H48">
         <v>0.25</v>
@@ -2302,36 +2302,36 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="3">
-        <v>11.45093683135468</v>
-      </c>
-      <c r="C49" s="3">
-        <v>56.856561472887719</v>
-      </c>
-      <c r="D49" s="3">
-        <v>8.6252219279178544</v>
-      </c>
-      <c r="E49" s="3">
-        <v>5.6333719409254188</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3.4013306622569388</v>
+      <c r="B49" s="4">
+        <v>123.0723087031496</v>
+      </c>
+      <c r="C49" s="4">
+        <v>34.933187232725231</v>
+      </c>
+      <c r="D49" s="4">
+        <v>6.4862173727278147</v>
+      </c>
+      <c r="E49" s="4">
+        <v>5.289819685390758</v>
+      </c>
+      <c r="F49" s="4">
+        <v>3.9862240460062019</v>
       </c>
       <c r="G49">
-        <v>85.967422835342589</v>
+        <v>173.76775703999959</v>
       </c>
       <c r="H49">
         <v>0.25</v>
@@ -2340,10 +2340,10 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>6</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1</v>
       </c>
       <c r="L49" t="s">
         <v>14</v>
@@ -2353,23 +2353,23 @@
       <c r="A50" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="3">
-        <v>13.014920578093831</v>
-      </c>
-      <c r="C50" s="3">
-        <v>74.301919472006034</v>
-      </c>
-      <c r="D50" s="3">
-        <v>4.7221807476105493</v>
-      </c>
-      <c r="E50" s="3">
-        <v>5.2259256728838723</v>
-      </c>
-      <c r="F50" s="3">
-        <v>3.8202159245342249</v>
+      <c r="B50" s="4">
+        <v>31.017155175050231</v>
+      </c>
+      <c r="C50" s="4">
+        <v>66.402381700423959</v>
+      </c>
+      <c r="D50" s="4">
+        <v>30.007295467561381</v>
+      </c>
+      <c r="E50" s="4">
+        <v>5.5427634516750546</v>
+      </c>
+      <c r="F50" s="4">
+        <v>4.0060463156838644</v>
       </c>
       <c r="G50">
-        <v>101.08516239512851</v>
+        <v>136.97564211039449</v>
       </c>
       <c r="H50">
         <v>0.25</v>
@@ -2378,36 +2378,36 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>14</v>
-      </c>
-      <c r="K50" s="3">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="K50" s="4">
+        <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="3">
-        <v>91.989120787911475</v>
-      </c>
-      <c r="C51" s="3">
-        <v>138.4661828451319</v>
-      </c>
-      <c r="D51" s="3">
-        <v>9.8507953745032442</v>
-      </c>
-      <c r="E51" s="3">
-        <v>8.684948300901894</v>
-      </c>
-      <c r="F51" s="3">
-        <v>4.5300505144914851</v>
+      <c r="B51" s="4">
+        <v>29.561262654961109</v>
+      </c>
+      <c r="C51" s="4">
+        <v>42.628221584535467</v>
+      </c>
+      <c r="D51" s="4">
+        <v>123.11486773227369</v>
+      </c>
+      <c r="E51" s="4">
+        <v>12.706417711075501</v>
+      </c>
+      <c r="F51" s="4">
+        <v>4.1361089727051628</v>
       </c>
       <c r="G51">
-        <v>253.52109782293999</v>
+        <v>212.14687865555101</v>
       </c>
       <c r="H51">
         <v>0.25</v>
@@ -2416,36 +2416,36 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>10</v>
-      </c>
-      <c r="K51" s="3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="3">
-        <v>6.1039553803991904</v>
-      </c>
-      <c r="C52" s="3">
-        <v>97.804114955560038</v>
-      </c>
-      <c r="D52" s="3">
-        <v>3.35875685868726</v>
-      </c>
-      <c r="E52" s="3">
-        <v>5.1043026110445027</v>
-      </c>
-      <c r="F52" s="3">
-        <v>4.7037780494310564</v>
+      <c r="B52" s="4">
+        <v>192.96147864763981</v>
+      </c>
+      <c r="C52" s="4">
+        <v>48.30875997467291</v>
+      </c>
+      <c r="D52" s="4">
+        <v>7.1217682590739759</v>
+      </c>
+      <c r="E52" s="4">
+        <v>4.1758167141183344</v>
+      </c>
+      <c r="F52" s="4">
+        <v>4.1858918930551647</v>
       </c>
       <c r="G52">
-        <v>117.07490785512201</v>
+        <v>256.75371548855998</v>
       </c>
       <c r="H52">
         <v>0.25</v>
@@ -2454,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="K52" s="4">
+        <v>1</v>
       </c>
       <c r="L52" t="s">
         <v>14</v>
@@ -2467,23 +2467,23 @@
       <c r="A53" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="3">
-        <v>9.9494274760875197</v>
-      </c>
-      <c r="C53" s="3">
-        <v>147.57198614704291</v>
-      </c>
-      <c r="D53" s="3">
-        <v>10.03517986585914</v>
-      </c>
-      <c r="E53" s="3">
-        <v>6.124547258104176</v>
-      </c>
-      <c r="F53" s="3">
-        <v>5.6861833660759666</v>
+      <c r="B53" s="4">
+        <v>199.45619868517429</v>
+      </c>
+      <c r="C53" s="4">
+        <v>75.809015947141162</v>
+      </c>
+      <c r="D53" s="4">
+        <v>16.128652819918258</v>
+      </c>
+      <c r="E53" s="4">
+        <v>6.583046757696863</v>
+      </c>
+      <c r="F53" s="4">
+        <v>4.2711446372725188</v>
       </c>
       <c r="G53">
-        <v>179.36732411316979</v>
+        <v>302.24805884720308</v>
       </c>
       <c r="H53">
         <v>0.25</v>
@@ -2492,13 +2492,13 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K53" s="4">
+        <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -2506,22 +2506,22 @@
         <v>11</v>
       </c>
       <c r="B54" s="3">
-        <v>9.9494274760875197</v>
+        <v>9.38597394958704</v>
       </c>
       <c r="C54" s="3">
-        <v>147.57198614704291</v>
+        <v>49.97431450824503</v>
       </c>
       <c r="D54" s="3">
-        <v>10.03517986585914</v>
+        <v>5.6927114920315356</v>
       </c>
       <c r="E54" s="3">
-        <v>6.124547258104176</v>
+        <v>5.8382939273877712</v>
       </c>
       <c r="F54" s="3">
-        <v>5.6861833660759666</v>
+        <v>4.2953752136978611</v>
       </c>
       <c r="G54">
-        <v>179.36732411316979</v>
+        <v>75.186669090949238</v>
       </c>
       <c r="H54">
         <v>0.25</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -2544,22 +2544,22 @@
         <v>11</v>
       </c>
       <c r="B55" s="3">
-        <v>9.9494274760875197</v>
+        <v>26.022695214489751</v>
       </c>
       <c r="C55" s="3">
-        <v>147.57198614704291</v>
+        <v>84.373684120143224</v>
       </c>
       <c r="D55" s="3">
-        <v>10.03517986585914</v>
+        <v>5.3928319327038183</v>
       </c>
       <c r="E55" s="3">
-        <v>6.124547258104176</v>
+        <v>4.5219591400424184</v>
       </c>
       <c r="F55" s="3">
-        <v>5.6861833660759666</v>
+        <v>4.3097189865692567</v>
       </c>
       <c r="G55">
-        <v>179.36732411316979</v>
+        <v>124.6208893939485</v>
       </c>
       <c r="H55">
         <v>0.25</v>
@@ -2568,13 +2568,13 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="K55" s="3">
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -2582,22 +2582,22 @@
         <v>11</v>
       </c>
       <c r="B56" s="3">
-        <v>9.9494274760875197</v>
+        <v>33.981931617107847</v>
       </c>
       <c r="C56" s="3">
-        <v>147.57198614704291</v>
+        <v>146.53855310867621</v>
       </c>
       <c r="D56" s="3">
-        <v>10.03517986585914</v>
+        <v>52.189822974434243</v>
       </c>
       <c r="E56" s="3">
-        <v>6.124547258104176</v>
+        <v>8.2278884169703073</v>
       </c>
       <c r="F56" s="3">
-        <v>5.6861833660759666</v>
+        <v>4.3255701052437896</v>
       </c>
       <c r="G56">
-        <v>179.36732411316979</v>
+        <v>245.26376622243251</v>
       </c>
       <c r="H56">
         <v>0.25</v>
@@ -2606,36 +2606,36 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K56" s="3">
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="3">
-        <v>9.9494274760875197</v>
-      </c>
-      <c r="C57" s="3">
-        <v>147.57198614704291</v>
-      </c>
-      <c r="D57" s="3">
-        <v>10.03517986585914</v>
-      </c>
-      <c r="E57" s="3">
-        <v>6.124547258104176</v>
-      </c>
-      <c r="F57" s="3">
-        <v>5.6861833660759666</v>
+      <c r="B57" s="4">
+        <v>8.5908557223105397</v>
+      </c>
+      <c r="C57" s="4">
+        <v>5.305613273270497</v>
+      </c>
+      <c r="D57" s="4">
+        <v>18.432630283873511</v>
+      </c>
+      <c r="E57" s="4">
+        <v>12.223008083502441</v>
+      </c>
+      <c r="F57" s="4">
+        <v>4.3314135663279032</v>
       </c>
       <c r="G57">
-        <v>179.36732411316979</v>
+        <v>48.883520929284899</v>
       </c>
       <c r="H57">
         <v>0.25</v>
@@ -2644,13 +2644,13 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>9</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="K57" s="4">
+        <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -2658,22 +2658,22 @@
         <v>11</v>
       </c>
       <c r="B58" s="3">
-        <v>9.9494274760875197</v>
+        <v>9.0921230331212399</v>
       </c>
       <c r="C58" s="3">
-        <v>147.57198614704291</v>
+        <v>63.422715978375187</v>
       </c>
       <c r="D58" s="3">
-        <v>10.03517986585914</v>
+        <v>21.62191706098557</v>
       </c>
       <c r="E58" s="3">
-        <v>6.124547258104176</v>
+        <v>7.5608072101077344</v>
       </c>
       <c r="F58" s="3">
-        <v>5.6861833660759666</v>
+        <v>4.3482002955881569</v>
       </c>
       <c r="G58">
-        <v>179.36732411316979</v>
+        <v>106.0457635781779</v>
       </c>
       <c r="H58">
         <v>0.25</v>
@@ -2682,36 +2682,36 @@
         <v>0</v>
       </c>
       <c r="J58">
+        <v>13</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" t="s">
         <v>12</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="3">
-        <v>9.9494274760875197</v>
-      </c>
-      <c r="C59" s="3">
-        <v>147.57198614704291</v>
-      </c>
-      <c r="D59" s="3">
-        <v>10.03517986585914</v>
-      </c>
-      <c r="E59" s="3">
-        <v>6.124547258104176</v>
-      </c>
-      <c r="F59" s="3">
-        <v>5.6861833660759666</v>
+      <c r="B59" s="4">
+        <v>42.419172966503517</v>
+      </c>
+      <c r="C59" s="4">
+        <v>48.168136465617543</v>
+      </c>
+      <c r="D59" s="4">
+        <v>18.578305432382479</v>
+      </c>
+      <c r="E59" s="4">
+        <v>5.0239294156377907</v>
+      </c>
+      <c r="F59" s="4">
+        <v>4.4010011698584517</v>
       </c>
       <c r="G59">
-        <v>179.36732411316979</v>
+        <v>118.59054544999979</v>
       </c>
       <c r="H59">
         <v>0.25</v>
@@ -2720,36 +2720,36 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>16</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="K59" s="4">
+        <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="3">
-        <v>9.9494274760875197</v>
-      </c>
-      <c r="C60" s="3">
-        <v>147.57198614704291</v>
-      </c>
-      <c r="D60" s="3">
-        <v>10.03517986585914</v>
-      </c>
-      <c r="E60" s="3">
-        <v>6.124547258104176</v>
-      </c>
-      <c r="F60" s="3">
-        <v>5.6861833660759666</v>
+      <c r="B60" s="4">
+        <v>15.90485432328904</v>
+      </c>
+      <c r="C60" s="4">
+        <v>8.5464671104241479</v>
+      </c>
+      <c r="D60" s="4">
+        <v>29.942335814082849</v>
+      </c>
+      <c r="E60" s="4">
+        <v>11.801470890014819</v>
+      </c>
+      <c r="F60" s="4">
+        <v>4.4092757804537293</v>
       </c>
       <c r="G60">
-        <v>179.36732411316979</v>
+        <v>70.60440391826458</v>
       </c>
       <c r="H60">
         <v>0.25</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>17</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K60" s="4">
+        <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -2772,22 +2772,22 @@
         <v>11</v>
       </c>
       <c r="B61" s="3">
-        <v>9.9494274760875197</v>
+        <v>7.8569824231420089</v>
       </c>
       <c r="C61" s="3">
-        <v>147.57198614704291</v>
+        <v>116.3582668722006</v>
       </c>
       <c r="D61" s="3">
-        <v>10.03517986585914</v>
+        <v>4.6835301544247283</v>
       </c>
       <c r="E61" s="3">
-        <v>6.124547258104176</v>
+        <v>4.5067339054243138</v>
       </c>
       <c r="F61" s="3">
-        <v>5.6861833660759666</v>
+        <v>4.4335440630056748</v>
       </c>
       <c r="G61">
-        <v>179.36732411316979</v>
+        <v>137.83905741819731</v>
       </c>
       <c r="H61">
         <v>0.25</v>
@@ -2796,13 +2796,13 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -2810,22 +2810,22 @@
         <v>11</v>
       </c>
       <c r="B62" s="3">
-        <v>68.234103253137818</v>
+        <v>91.989120787911475</v>
       </c>
       <c r="C62" s="3">
-        <v>67.935134671394465</v>
+        <v>138.4661828451319</v>
       </c>
       <c r="D62" s="3">
-        <v>27.01543160719832</v>
+        <v>9.8507953745032442</v>
       </c>
       <c r="E62" s="3">
-        <v>7.1277005361731511</v>
+        <v>8.684948300901894</v>
       </c>
       <c r="F62" s="3">
-        <v>5.7073104613860686</v>
+        <v>4.5300505144914851</v>
       </c>
       <c r="G62">
-        <v>176.01968052928979</v>
+        <v>253.52109782293999</v>
       </c>
       <c r="H62">
         <v>0.25</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2847,23 +2847,23 @@
       <c r="A63" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="3">
-        <v>80.638996061647532</v>
-      </c>
-      <c r="C63" s="3">
-        <v>208.68450095866351</v>
-      </c>
-      <c r="D63" s="3">
-        <v>5.5490375718449698</v>
-      </c>
-      <c r="E63" s="3">
-        <v>7.3390372763318084</v>
-      </c>
-      <c r="F63" s="3">
-        <v>6.102321100031368</v>
+      <c r="B63" s="4">
+        <v>20.287379308229891</v>
+      </c>
+      <c r="C63" s="4">
+        <v>11.49035886777094</v>
+      </c>
+      <c r="D63" s="4">
+        <v>6.6942031119778358</v>
+      </c>
+      <c r="E63" s="4">
+        <v>5.1501763210756586</v>
+      </c>
+      <c r="F63" s="4">
+        <v>4.5524473023091936</v>
       </c>
       <c r="G63">
-        <v>308.31389296851921</v>
+        <v>48.174564911363532</v>
       </c>
       <c r="H63">
         <v>0.25</v>
@@ -2872,10 +2872,10 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>11</v>
-      </c>
-      <c r="K63" s="3">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1</v>
       </c>
       <c r="L63" t="s">
         <v>14</v>
@@ -2885,23 +2885,23 @@
       <c r="A64" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="3">
-        <v>12.513047125981821</v>
-      </c>
-      <c r="C64" s="3">
-        <v>87.772194964313456</v>
-      </c>
-      <c r="D64" s="3">
-        <v>4.5747775016100407</v>
-      </c>
-      <c r="E64" s="3">
-        <v>7.2748019393110113</v>
-      </c>
-      <c r="F64" s="3">
-        <v>7.2019433598904721</v>
+      <c r="B64" s="4">
+        <v>32.955101849987308</v>
+      </c>
+      <c r="C64" s="4">
+        <v>22.20365003439526</v>
+      </c>
+      <c r="D64" s="4">
+        <v>27.940083859878619</v>
+      </c>
+      <c r="E64" s="4">
+        <v>12.00831289081955</v>
+      </c>
+      <c r="F64" s="4">
+        <v>4.6074574826721992</v>
       </c>
       <c r="G64">
-        <v>119.3367648911068</v>
+        <v>99.714606117752936</v>
       </c>
       <c r="H64">
         <v>0.25</v>
@@ -2910,36 +2910,36 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>7</v>
-      </c>
-      <c r="K64" s="3">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="K64" s="4">
+        <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="3">
-        <v>154.8053906820501</v>
-      </c>
-      <c r="C65" s="3">
-        <v>66.674247008231077</v>
-      </c>
-      <c r="D65" s="3">
-        <v>24.680889355063389</v>
-      </c>
-      <c r="E65" s="3">
-        <v>18.38178066324226</v>
-      </c>
-      <c r="F65" s="3">
-        <v>14.838159617643971</v>
+      <c r="B65" s="4">
+        <v>156.0579959456995</v>
+      </c>
+      <c r="C65" s="4">
+        <v>26.0302260642565</v>
+      </c>
+      <c r="D65" s="4">
+        <v>3.6651978327629049</v>
+      </c>
+      <c r="E65" s="4">
+        <v>5.0949159837686206</v>
+      </c>
+      <c r="F65" s="4">
+        <v>4.6428727950115034</v>
       </c>
       <c r="G65">
-        <v>279.38046732623081</v>
+        <v>195.491208621499</v>
       </c>
       <c r="H65">
         <v>0.25</v>
@@ -2948,13 +2948,13 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>19</v>
-      </c>
-      <c r="K65" s="3">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K65" s="4">
+        <v>1</v>
       </c>
       <c r="L65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -2962,22 +2962,22 @@
         <v>11</v>
       </c>
       <c r="B66" s="3">
-        <v>691.646858877878</v>
+        <v>24.421993036219519</v>
       </c>
       <c r="C66" s="3">
-        <v>120.6793576909495</v>
+        <v>8.8670530047517158</v>
       </c>
       <c r="D66" s="3">
-        <v>20.538092215793561</v>
+        <v>5.8593510270445481</v>
       </c>
       <c r="E66" s="3">
-        <v>25.353299969143851</v>
+        <v>4.1592214157487799</v>
       </c>
       <c r="F66" s="3">
-        <v>14.97236859099665</v>
+        <v>4.6772847753228088</v>
       </c>
       <c r="G66">
-        <v>873.18997734476136</v>
+        <v>47.984903259087368</v>
       </c>
       <c r="H66">
         <v>0.25</v>
@@ -2986,13 +2986,13 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3000,22 +3000,22 @@
         <v>11</v>
       </c>
       <c r="B67" s="3">
-        <v>10.84708838790424</v>
+        <v>6.1039553803991904</v>
       </c>
       <c r="C67" s="3">
-        <v>77.024879796395879</v>
+        <v>97.804114955560038</v>
       </c>
       <c r="D67" s="3">
-        <v>6.7680464774664113</v>
+        <v>3.35875685868726</v>
       </c>
       <c r="E67" s="3">
-        <v>10.024135588070219</v>
+        <v>5.1043026110445027</v>
       </c>
       <c r="F67" s="3">
-        <v>20.336893965483551</v>
+        <v>4.7037780494310564</v>
       </c>
       <c r="G67">
-        <v>125.00104421532031</v>
+        <v>117.07490785512201</v>
       </c>
       <c r="H67">
         <v>0.25</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="K67" s="3">
         <v>0</v>
@@ -3038,22 +3038,22 @@
         <v>11</v>
       </c>
       <c r="B68" s="3">
-        <v>3592.228667497629</v>
+        <v>56.41532783545064</v>
       </c>
       <c r="C68" s="3">
-        <v>624.41179045869444</v>
+        <v>15.04551730374364</v>
       </c>
       <c r="D68" s="3">
-        <v>208.8868015261977</v>
+        <v>15.88768676838578</v>
       </c>
       <c r="E68" s="3">
-        <v>291.28989666992408</v>
+        <v>10.178686488560411</v>
       </c>
       <c r="F68" s="3">
-        <v>87.345748303046179</v>
+        <v>4.7372025484601856</v>
       </c>
       <c r="G68">
-        <v>4804.1629044554911</v>
+        <v>102.2644209446007</v>
       </c>
       <c r="H68">
         <v>0.25</v>
@@ -3062,36 +3062,36 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K68" s="3">
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="4">
-        <v>18.333959309279059</v>
-      </c>
-      <c r="C69" s="4">
-        <v>23.972882751907861</v>
-      </c>
-      <c r="D69" s="4">
-        <v>18.239155699361341</v>
-      </c>
-      <c r="E69" s="4">
-        <v>4.265969704773994</v>
-      </c>
-      <c r="F69" s="4">
-        <v>1.5869917468251931</v>
+      <c r="B69" s="3">
+        <v>72.593776317983753</v>
+      </c>
+      <c r="C69" s="3">
+        <v>16.25205251720763</v>
+      </c>
+      <c r="D69" s="3">
+        <v>10.369052136662891</v>
+      </c>
+      <c r="E69" s="3">
+        <v>6.5126793270502654</v>
+      </c>
+      <c r="F69" s="3">
+        <v>4.7862609164514813</v>
       </c>
       <c r="G69">
-        <v>66.398959212147446</v>
+        <v>110.513821215356</v>
       </c>
       <c r="H69">
         <v>0.25</v>
@@ -3100,13 +3100,13 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>26</v>
-      </c>
-      <c r="K69" s="4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -3114,22 +3114,22 @@
         <v>11</v>
       </c>
       <c r="B70" s="4">
-        <v>18.892572186365161</v>
+        <v>42.880850414325529</v>
       </c>
       <c r="C70" s="4">
-        <v>7.1816757821506636</v>
+        <v>8.544018810396576</v>
       </c>
       <c r="D70" s="4">
-        <v>15.716593129695861</v>
+        <v>7.0371680743571297</v>
       </c>
       <c r="E70" s="4">
-        <v>5.355839022604628</v>
+        <v>6.9681475373672903</v>
       </c>
       <c r="F70" s="4">
-        <v>2.0206469030420142</v>
+        <v>4.8041653256674772</v>
       </c>
       <c r="G70">
-        <v>49.167327023858327</v>
+        <v>70.234350162113984</v>
       </c>
       <c r="H70">
         <v>0.25</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K70" s="4">
         <v>1</v>
@@ -3151,23 +3151,23 @@
       <c r="A71" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="4">
-        <v>16.038965583051109</v>
-      </c>
-      <c r="C71" s="4">
-        <v>25.503093117142061</v>
-      </c>
-      <c r="D71" s="4">
-        <v>19.25442154418867</v>
-      </c>
-      <c r="E71" s="4">
-        <v>4.1952522371325358</v>
-      </c>
-      <c r="F71" s="4">
-        <v>2.2407398008541688</v>
+      <c r="B71" s="3">
+        <v>47.766278629803999</v>
+      </c>
+      <c r="C71" s="3">
+        <v>17.346238728272908</v>
+      </c>
+      <c r="D71" s="3">
+        <v>5.9288599378187756</v>
+      </c>
+      <c r="E71" s="3">
+        <v>4.4537291574793842</v>
+      </c>
+      <c r="F71" s="3">
+        <v>4.8066222629495918</v>
       </c>
       <c r="G71">
-        <v>67.232472282368548</v>
+        <v>80.301728716324646</v>
       </c>
       <c r="H71">
         <v>0.25</v>
@@ -3176,13 +3176,13 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>14</v>
-      </c>
-      <c r="K71" s="4">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3190,22 +3190,22 @@
         <v>11</v>
       </c>
       <c r="B72" s="4">
-        <v>21.21113392278664</v>
+        <v>98.633528230646533</v>
       </c>
       <c r="C72" s="4">
-        <v>7.6146539416327617</v>
+        <v>29.79622677171437</v>
       </c>
       <c r="D72" s="4">
-        <v>2.896223508986326</v>
+        <v>13.958032354788671</v>
       </c>
       <c r="E72" s="4">
-        <v>7.7921746186866807</v>
+        <v>12.912823371141121</v>
       </c>
       <c r="F72" s="4">
-        <v>2.8328848149401908</v>
+        <v>4.8279755434833493</v>
       </c>
       <c r="G72">
-        <v>42.347070807032608</v>
+        <v>160.12858627177411</v>
       </c>
       <c r="H72">
         <v>0.25</v>
@@ -3214,13 +3214,13 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K72" s="4">
         <v>1</v>
       </c>
       <c r="L72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3228,22 +3228,22 @@
         <v>11</v>
       </c>
       <c r="B73" s="4">
-        <v>8.604533876333047</v>
+        <v>104.7769605794938</v>
       </c>
       <c r="C73" s="4">
-        <v>9.8574541951209813</v>
+        <v>32.023110065944323</v>
       </c>
       <c r="D73" s="4">
-        <v>9.2944277815176726</v>
+        <v>14.40115413061686</v>
       </c>
       <c r="E73" s="4">
-        <v>4.4370837065041346</v>
+        <v>12.702175347154499</v>
       </c>
       <c r="F73" s="4">
-        <v>3.1166416915609179</v>
+        <v>4.8708142090648998</v>
       </c>
       <c r="G73">
-        <v>35.310141251036747</v>
+        <v>168.7742143322744</v>
       </c>
       <c r="H73">
         <v>0.25</v>
@@ -3252,13 +3252,13 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K73" s="4">
         <v>1</v>
       </c>
       <c r="L73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3266,22 +3266,22 @@
         <v>11</v>
       </c>
       <c r="B74" s="4">
-        <v>16.40065444514283</v>
+        <v>14.87873608202062</v>
       </c>
       <c r="C74" s="4">
-        <v>10.1978866809477</v>
+        <v>12.673805299263149</v>
       </c>
       <c r="D74" s="4">
-        <v>9.965651540558417</v>
+        <v>26.60745349804948</v>
       </c>
       <c r="E74" s="4">
-        <v>5.7414769733448283</v>
+        <v>6.7497971392256746</v>
       </c>
       <c r="F74" s="4">
-        <v>3.3060553988782422</v>
+        <v>4.8999549508110034</v>
       </c>
       <c r="G74">
-        <v>45.611725038872009</v>
+        <v>65.809746969369954</v>
       </c>
       <c r="H74">
         <v>0.25</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K74" s="4">
         <v>1</v>
@@ -3304,22 +3304,22 @@
         <v>11</v>
       </c>
       <c r="B75" s="4">
-        <v>13.92663546499969</v>
+        <v>54.43315878742871</v>
       </c>
       <c r="C75" s="4">
-        <v>7.1404638989137839</v>
+        <v>16.860058510578199</v>
       </c>
       <c r="D75" s="4">
-        <v>19.177143964877779</v>
+        <v>8.2926685049167688</v>
       </c>
       <c r="E75" s="4">
-        <v>6.6358386726821799</v>
+        <v>8.6354342254790151</v>
       </c>
       <c r="F75" s="4">
-        <v>3.749329200519516</v>
+        <v>4.9048127625091666</v>
       </c>
       <c r="G75">
-        <v>50.629411201992959</v>
+        <v>93.126132790911868</v>
       </c>
       <c r="H75">
         <v>0.25</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K75" s="4">
         <v>1</v>
       </c>
       <c r="L75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -3342,22 +3342,22 @@
         <v>11</v>
       </c>
       <c r="B76" s="4">
-        <v>23.123191484985291</v>
+        <v>9840.9264335819425</v>
       </c>
       <c r="C76" s="4">
-        <v>28.966566902681642</v>
+        <v>1003.226231407927</v>
       </c>
       <c r="D76" s="4">
-        <v>128.78071092559821</v>
+        <v>71.506029529541138</v>
       </c>
       <c r="E76" s="4">
-        <v>12.93968839380171</v>
+        <v>10.37102086039345</v>
       </c>
       <c r="F76" s="4">
-        <v>3.9661533301009189</v>
+        <v>4.9389733306658758</v>
       </c>
       <c r="G76">
-        <v>197.77631103716769</v>
+        <v>10930.968688710471</v>
       </c>
       <c r="H76">
         <v>0.25</v>
@@ -3366,13 +3366,13 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K76" s="4">
         <v>1</v>
       </c>
       <c r="L76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -3380,22 +3380,22 @@
         <v>11</v>
       </c>
       <c r="B77" s="4">
-        <v>31.017155175050231</v>
+        <v>10.716913307559301</v>
       </c>
       <c r="C77" s="4">
-        <v>66.402381700423959</v>
+        <v>19.296014209582811</v>
       </c>
       <c r="D77" s="4">
-        <v>30.007295467561381</v>
+        <v>61.829203813640227</v>
       </c>
       <c r="E77" s="4">
-        <v>5.5427634516750546</v>
+        <v>19.443539139273511</v>
       </c>
       <c r="F77" s="4">
-        <v>4.0060463156838644</v>
+        <v>5.0459453077825023</v>
       </c>
       <c r="G77">
-        <v>136.97564211039449</v>
+        <v>116.33161577783829</v>
       </c>
       <c r="H77">
         <v>0.25</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K77" s="4">
         <v>1</v>
@@ -3418,22 +3418,22 @@
         <v>11</v>
       </c>
       <c r="B78" s="4">
-        <v>29.561262654961109</v>
+        <v>91.90032007639941</v>
       </c>
       <c r="C78" s="4">
-        <v>42.628221584535467</v>
+        <v>34.250004808011859</v>
       </c>
       <c r="D78" s="4">
-        <v>123.11486773227369</v>
+        <v>36.374704511181953</v>
       </c>
       <c r="E78" s="4">
-        <v>12.706417711075501</v>
+        <v>14.637926205657459</v>
       </c>
       <c r="F78" s="4">
-        <v>4.1361089727051628</v>
+        <v>5.0991044883552634</v>
       </c>
       <c r="G78">
-        <v>212.14687865555101</v>
+        <v>182.26206008960591</v>
       </c>
       <c r="H78">
         <v>0.25</v>
@@ -3442,13 +3442,13 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K78" s="4">
         <v>1</v>
       </c>
       <c r="L78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -3456,22 +3456,22 @@
         <v>11</v>
       </c>
       <c r="B79" s="4">
-        <v>8.5908557223105397</v>
+        <v>57.899300719167229</v>
       </c>
       <c r="C79" s="4">
-        <v>5.305613273270497</v>
+        <v>18.806287405263429</v>
       </c>
       <c r="D79" s="4">
-        <v>18.432630283873511</v>
+        <v>16.189366163094331</v>
       </c>
       <c r="E79" s="4">
-        <v>12.223008083502441</v>
+        <v>8.3749036218432664</v>
       </c>
       <c r="F79" s="4">
-        <v>4.3314135663279032</v>
+        <v>5.1529538222296427</v>
       </c>
       <c r="G79">
-        <v>48.883520929284899</v>
+        <v>106.4228117315979</v>
       </c>
       <c r="H79">
         <v>0.25</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K79" s="4">
         <v>1</v>
       </c>
       <c r="L79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -3494,22 +3494,22 @@
         <v>11</v>
       </c>
       <c r="B80" s="4">
-        <v>15.90485432328904</v>
+        <v>231.6823727423409</v>
       </c>
       <c r="C80" s="4">
-        <v>8.5464671104241479</v>
+        <v>87.395043801273118</v>
       </c>
       <c r="D80" s="4">
-        <v>29.942335814082849</v>
+        <v>18.73730154701974</v>
       </c>
       <c r="E80" s="4">
-        <v>11.801470890014819</v>
+        <v>8.0192289892621194</v>
       </c>
       <c r="F80" s="4">
-        <v>4.4092757804537293</v>
+        <v>5.3521631787143713</v>
       </c>
       <c r="G80">
-        <v>70.60440391826458</v>
+        <v>351.18611025861031</v>
       </c>
       <c r="H80">
         <v>0.25</v>
@@ -3518,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K80" s="4">
         <v>1</v>
       </c>
       <c r="L80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -3532,22 +3532,22 @@
         <v>11</v>
       </c>
       <c r="B81" s="4">
-        <v>42.880850414325529</v>
+        <v>376.59064096034251</v>
       </c>
       <c r="C81" s="4">
-        <v>8.544018810396576</v>
+        <v>94.8659896107077</v>
       </c>
       <c r="D81" s="4">
-        <v>7.0371680743571297</v>
+        <v>29.66677882291879</v>
       </c>
       <c r="E81" s="4">
-        <v>6.9681475373672903</v>
+        <v>12.772363054733431</v>
       </c>
       <c r="F81" s="4">
-        <v>4.8041653256674772</v>
+        <v>5.4041939480401604</v>
       </c>
       <c r="G81">
-        <v>70.234350162113984</v>
+        <v>519.29996639674232</v>
       </c>
       <c r="H81">
         <v>0.25</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K81" s="4">
         <v>1</v>
@@ -3570,22 +3570,22 @@
         <v>11</v>
       </c>
       <c r="B82" s="4">
-        <v>14.87873608202062</v>
+        <v>68.872827785265514</v>
       </c>
       <c r="C82" s="4">
-        <v>12.673805299263149</v>
+        <v>20.06333811767923</v>
       </c>
       <c r="D82" s="4">
-        <v>26.60745349804948</v>
+        <v>4.621096859631165</v>
       </c>
       <c r="E82" s="4">
-        <v>6.7497971392256746</v>
+        <v>3.9417283402227259</v>
       </c>
       <c r="F82" s="4">
-        <v>4.8999549508110034</v>
+        <v>5.4228929424938714</v>
       </c>
       <c r="G82">
-        <v>65.809746969369954</v>
+        <v>102.9218840452925</v>
       </c>
       <c r="H82">
         <v>0.25</v>
@@ -3594,36 +3594,36 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K82" s="4">
         <v>1</v>
       </c>
       <c r="L82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="4">
-        <v>10.716913307559301</v>
-      </c>
-      <c r="C83" s="4">
-        <v>19.296014209582811</v>
-      </c>
-      <c r="D83" s="4">
-        <v>61.829203813640227</v>
-      </c>
-      <c r="E83" s="4">
-        <v>19.443539139273511</v>
-      </c>
-      <c r="F83" s="4">
-        <v>5.0459453077825023</v>
+      <c r="B83" s="3">
+        <v>15.666107357819209</v>
+      </c>
+      <c r="C83" s="3">
+        <v>140.8371935642372</v>
+      </c>
+      <c r="D83" s="3">
+        <v>36.407821461804161</v>
+      </c>
+      <c r="E83" s="3">
+        <v>7.0240918140004291</v>
+      </c>
+      <c r="F83" s="3">
+        <v>5.4434224687519839</v>
       </c>
       <c r="G83">
-        <v>116.33161577783829</v>
+        <v>205.37863666661309</v>
       </c>
       <c r="H83">
         <v>0.25</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>15</v>
-      </c>
-      <c r="K83" s="4">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" t="s">
         <v>12</v>
@@ -3645,23 +3645,23 @@
       <c r="A84" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="4">
-        <v>376.59064096034251</v>
-      </c>
-      <c r="C84" s="4">
-        <v>94.8659896107077</v>
-      </c>
-      <c r="D84" s="4">
-        <v>29.66677882291879</v>
-      </c>
-      <c r="E84" s="4">
-        <v>12.772363054733431</v>
-      </c>
-      <c r="F84" s="4">
-        <v>5.4041939480401604</v>
+      <c r="B84" s="3">
+        <v>47.08694230455302</v>
+      </c>
+      <c r="C84" s="3">
+        <v>31.601684398098829</v>
+      </c>
+      <c r="D84" s="3">
+        <v>80.569699097757677</v>
+      </c>
+      <c r="E84" s="3">
+        <v>14.5777399052324</v>
+      </c>
+      <c r="F84" s="3">
+        <v>5.5576696602984494</v>
       </c>
       <c r="G84">
-        <v>519.29996639674232</v>
+        <v>179.39373536594039</v>
       </c>
       <c r="H84">
         <v>0.25</v>
@@ -3670,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>27</v>
-      </c>
-      <c r="K84" s="4">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K84" s="3">
+        <v>0</v>
       </c>
       <c r="L84" t="s">
         <v>12</v>
@@ -3683,23 +3683,23 @@
       <c r="A85" t="s">
         <v>11</v>
       </c>
-      <c r="B85" s="4">
-        <v>18.415545241107349</v>
-      </c>
-      <c r="C85" s="4">
-        <v>11.71471123100401</v>
-      </c>
-      <c r="D85" s="4">
-        <v>13.1656065324342</v>
-      </c>
-      <c r="E85" s="4">
-        <v>12.96511129207353</v>
-      </c>
-      <c r="F85" s="4">
-        <v>5.7603437856879056</v>
+      <c r="B85" s="3">
+        <v>9.9494274760875197</v>
+      </c>
+      <c r="C85" s="3">
+        <v>147.57198614704291</v>
+      </c>
+      <c r="D85" s="3">
+        <v>10.03517986585914</v>
+      </c>
+      <c r="E85" s="3">
+        <v>6.124547258104176</v>
+      </c>
+      <c r="F85" s="3">
+        <v>5.6861833660759666</v>
       </c>
       <c r="G85">
-        <v>62.021318082306991</v>
+        <v>179.36732411316979</v>
       </c>
       <c r="H85">
         <v>0.25</v>
@@ -3710,34 +3710,34 @@
       <c r="J85">
         <v>1</v>
       </c>
-      <c r="K85" s="4">
-        <v>1</v>
+      <c r="K85" s="3">
+        <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="4">
-        <v>162.33640073864581</v>
-      </c>
-      <c r="C86" s="4">
-        <v>42.47398346588475</v>
-      </c>
-      <c r="D86" s="4">
-        <v>15.96255614171357</v>
-      </c>
-      <c r="E86" s="4">
-        <v>10.664513292254661</v>
-      </c>
-      <c r="F86" s="4">
-        <v>6.5348768345100199</v>
+      <c r="B86" s="3">
+        <v>9.9494274760875197</v>
+      </c>
+      <c r="C86" s="3">
+        <v>147.57198614704291</v>
+      </c>
+      <c r="D86" s="3">
+        <v>10.03517986585914</v>
+      </c>
+      <c r="E86" s="3">
+        <v>6.124547258104176</v>
+      </c>
+      <c r="F86" s="3">
+        <v>5.6861833660759666</v>
       </c>
       <c r="G86">
-        <v>237.97233047300881</v>
+        <v>179.36732411316979</v>
       </c>
       <c r="H86">
         <v>0.25</v>
@@ -3746,36 +3746,36 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>21</v>
-      </c>
-      <c r="K86" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K86" s="3">
+        <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="4">
-        <v>36.109276257980113</v>
-      </c>
-      <c r="C87" s="4">
-        <v>20.223574654390429</v>
-      </c>
-      <c r="D87" s="4">
-        <v>12.597202512621481</v>
-      </c>
-      <c r="E87" s="4">
-        <v>9.5724389997561996</v>
-      </c>
-      <c r="F87" s="4">
-        <v>6.8137524321666394</v>
+      <c r="B87" s="3">
+        <v>9.9494274760875197</v>
+      </c>
+      <c r="C87" s="3">
+        <v>147.57198614704291</v>
+      </c>
+      <c r="D87" s="3">
+        <v>10.03517986585914</v>
+      </c>
+      <c r="E87" s="3">
+        <v>6.124547258104176</v>
+      </c>
+      <c r="F87" s="3">
+        <v>5.6861833660759666</v>
       </c>
       <c r="G87">
-        <v>85.316244856914835</v>
+        <v>179.36732411316979</v>
       </c>
       <c r="H87">
         <v>0.25</v>
@@ -3784,36 +3784,36 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>2</v>
-      </c>
-      <c r="K87" s="4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K87" s="3">
+        <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="4">
-        <v>198.48570539106601</v>
-      </c>
-      <c r="C88" s="4">
-        <v>14.7754031999844</v>
-      </c>
-      <c r="D88" s="4">
-        <v>58.916620996719992</v>
-      </c>
-      <c r="E88" s="4">
-        <v>19.269440894249239</v>
-      </c>
-      <c r="F88" s="4">
-        <v>9.7322806012992906</v>
+      <c r="B88" s="3">
+        <v>9.9494274760875197</v>
+      </c>
+      <c r="C88" s="3">
+        <v>147.57198614704291</v>
+      </c>
+      <c r="D88" s="3">
+        <v>10.03517986585914</v>
+      </c>
+      <c r="E88" s="3">
+        <v>6.124547258104176</v>
+      </c>
+      <c r="F88" s="3">
+        <v>5.6861833660759666</v>
       </c>
       <c r="G88">
-        <v>301.17945108331901</v>
+        <v>179.36732411316979</v>
       </c>
       <c r="H88">
         <v>0.25</v>
@@ -3822,36 +3822,36 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>25</v>
-      </c>
-      <c r="K88" s="4">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K88" s="3">
+        <v>0</v>
       </c>
       <c r="L88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="4">
-        <v>1624.381491873864</v>
-      </c>
-      <c r="C89" s="4">
-        <v>281.50971721991829</v>
-      </c>
-      <c r="D89" s="4">
-        <v>43.762421765543387</v>
-      </c>
-      <c r="E89" s="4">
-        <v>22.09744363260808</v>
-      </c>
-      <c r="F89" s="4">
-        <v>11.178717561529989</v>
+      <c r="B89" s="3">
+        <v>9.9494274760875197</v>
+      </c>
+      <c r="C89" s="3">
+        <v>147.57198614704291</v>
+      </c>
+      <c r="D89" s="3">
+        <v>10.03517986585914</v>
+      </c>
+      <c r="E89" s="3">
+        <v>6.124547258104176</v>
+      </c>
+      <c r="F89" s="3">
+        <v>5.6861833660759666</v>
       </c>
       <c r="G89">
-        <v>1982.929792053463</v>
+        <v>179.36732411316979</v>
       </c>
       <c r="H89">
         <v>0.25</v>
@@ -3860,36 +3860,36 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>18</v>
-      </c>
-      <c r="K89" s="4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="4">
-        <v>16.829548346588581</v>
-      </c>
-      <c r="C90" s="4">
-        <v>8.4395017318649863</v>
-      </c>
-      <c r="D90" s="4">
-        <v>8.2198903231426517</v>
-      </c>
-      <c r="E90" s="4">
-        <v>17.846005988731459</v>
-      </c>
-      <c r="F90" s="4">
-        <v>11.36120372862244</v>
+      <c r="B90" s="3">
+        <v>9.9494274760875197</v>
+      </c>
+      <c r="C90" s="3">
+        <v>147.57198614704291</v>
+      </c>
+      <c r="D90" s="3">
+        <v>10.03517986585914</v>
+      </c>
+      <c r="E90" s="3">
+        <v>6.124547258104176</v>
+      </c>
+      <c r="F90" s="3">
+        <v>5.6861833660759666</v>
       </c>
       <c r="G90">
-        <v>62.696150118950108</v>
+        <v>179.36732411316979</v>
       </c>
       <c r="H90">
         <v>0.25</v>
@@ -3898,36 +3898,36 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>28</v>
-      </c>
-      <c r="K90" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="4">
-        <v>21.418052144107431</v>
-      </c>
-      <c r="C91" s="4">
-        <v>46.095162101639289</v>
-      </c>
-      <c r="D91" s="4">
-        <v>14.85546526992416</v>
-      </c>
-      <c r="E91" s="4">
-        <v>13.33381547773944</v>
-      </c>
-      <c r="F91" s="4">
-        <v>15.9982138551249</v>
+      <c r="B91" s="3">
+        <v>9.9494274760875197</v>
+      </c>
+      <c r="C91" s="3">
+        <v>147.57198614704291</v>
+      </c>
+      <c r="D91" s="3">
+        <v>10.03517986585914</v>
+      </c>
+      <c r="E91" s="3">
+        <v>6.124547258104176</v>
+      </c>
+      <c r="F91" s="3">
+        <v>5.6861833660759666</v>
       </c>
       <c r="G91">
-        <v>111.7007088485352</v>
+        <v>179.36732411316979</v>
       </c>
       <c r="H91">
         <v>0.25</v>
@@ -3936,36 +3936,36 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>6</v>
-      </c>
-      <c r="K91" s="4">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="4">
-        <v>415.50693591671472</v>
-      </c>
-      <c r="C92" s="4">
-        <v>91.288032755151363</v>
-      </c>
-      <c r="D92" s="4">
-        <v>47.919472204404457</v>
-      </c>
-      <c r="E92" s="4">
-        <v>20.611163309119299</v>
-      </c>
-      <c r="F92" s="4">
-        <v>24.761727854977629</v>
+      <c r="B92" s="3">
+        <v>9.9494274760875197</v>
+      </c>
+      <c r="C92" s="3">
+        <v>147.57198614704291</v>
+      </c>
+      <c r="D92" s="3">
+        <v>10.03517986585914</v>
+      </c>
+      <c r="E92" s="3">
+        <v>6.124547258104176</v>
+      </c>
+      <c r="F92" s="3">
+        <v>5.6861833660759666</v>
       </c>
       <c r="G92">
-        <v>600.08733204036753</v>
+        <v>179.36732411316979</v>
       </c>
       <c r="H92">
         <v>0.25</v>
@@ -3974,36 +3974,36 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>20</v>
-      </c>
-      <c r="K92" s="4">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K92" s="3">
+        <v>0</v>
       </c>
       <c r="L92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="4">
-        <v>55.034208221574858</v>
-      </c>
-      <c r="C93" s="4">
-        <v>23.84697915536405</v>
-      </c>
-      <c r="D93" s="4">
-        <v>5.5669656129748333</v>
-      </c>
-      <c r="E93" s="4">
-        <v>2.4630236909208989</v>
-      </c>
-      <c r="F93" s="4">
-        <v>1.0497133565824051</v>
+      <c r="B93" s="3">
+        <v>9.9494274760875197</v>
+      </c>
+      <c r="C93" s="3">
+        <v>147.57198614704291</v>
+      </c>
+      <c r="D93" s="3">
+        <v>10.03517986585914</v>
+      </c>
+      <c r="E93" s="3">
+        <v>6.124547258104176</v>
+      </c>
+      <c r="F93" s="3">
+        <v>5.6861833660759666</v>
       </c>
       <c r="G93">
-        <v>87.960890037417045</v>
+        <v>179.36732411316979</v>
       </c>
       <c r="H93">
         <v>0.25</v>
@@ -4012,36 +4012,36 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>27</v>
-      </c>
-      <c r="K93" s="4">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="K93" s="3">
+        <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="4">
-        <v>34.767996406571307</v>
-      </c>
-      <c r="C94" s="4">
-        <v>7.6228398885045081</v>
-      </c>
-      <c r="D94" s="4">
-        <v>4.1838908412029241</v>
-      </c>
-      <c r="E94" s="4">
-        <v>2.948352707411682</v>
-      </c>
-      <c r="F94" s="4">
-        <v>2.0233343803785062</v>
+      <c r="B94" s="3">
+        <v>68.234103253137818</v>
+      </c>
+      <c r="C94" s="3">
+        <v>67.935134671394465</v>
+      </c>
+      <c r="D94" s="3">
+        <v>27.01543160719832</v>
+      </c>
+      <c r="E94" s="3">
+        <v>7.1277005361731511</v>
+      </c>
+      <c r="F94" s="3">
+        <v>5.7073104613860686</v>
       </c>
       <c r="G94">
-        <v>51.54641422406894</v>
+        <v>176.01968052928979</v>
       </c>
       <c r="H94">
         <v>0.25</v>
@@ -4050,36 +4050,36 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>13</v>
-      </c>
-      <c r="K94" s="4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="4">
-        <v>51.412380722758087</v>
-      </c>
-      <c r="C95" s="4">
-        <v>30.512945135903241</v>
-      </c>
-      <c r="D95" s="4">
-        <v>13.909500767527931</v>
-      </c>
-      <c r="E95" s="4">
-        <v>4.6152258158510326</v>
-      </c>
-      <c r="F95" s="4">
-        <v>2.1001298139249251</v>
+      <c r="B95" s="3">
+        <v>194.45031417342051</v>
+      </c>
+      <c r="C95" s="3">
+        <v>397.09093756450739</v>
+      </c>
+      <c r="D95" s="3">
+        <v>12.082000006656941</v>
+      </c>
+      <c r="E95" s="3">
+        <v>7.6160491457971711</v>
+      </c>
+      <c r="F95" s="3">
+        <v>5.7112539602341492</v>
       </c>
       <c r="G95">
-        <v>102.5501822559653</v>
+        <v>616.95055485061607</v>
       </c>
       <c r="H95">
         <v>0.25</v>
@@ -4088,13 +4088,13 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>14</v>
-      </c>
-      <c r="K95" s="4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K95" s="3">
+        <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -4102,22 +4102,22 @@
         <v>11</v>
       </c>
       <c r="B96" s="4">
-        <v>9.6910012286348284</v>
+        <v>61.210304294637019</v>
       </c>
       <c r="C96" s="4">
-        <v>9.339660265038102</v>
+        <v>13.860131057085621</v>
       </c>
       <c r="D96" s="4">
-        <v>6.5690485984475799</v>
+        <v>5.5492852019461072</v>
       </c>
       <c r="E96" s="4">
-        <v>3.0091441934155521</v>
+        <v>5.6687441110746173</v>
       </c>
       <c r="F96" s="4">
-        <v>2.1505763751604068</v>
+        <v>5.7212990064969178</v>
       </c>
       <c r="G96">
-        <v>30.75943066069647</v>
+        <v>92.009763671240279</v>
       </c>
       <c r="H96">
         <v>0.25</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K96" s="4">
         <v>1</v>
@@ -4140,22 +4140,22 @@
         <v>11</v>
       </c>
       <c r="B97" s="4">
-        <v>81.840046467490723</v>
+        <v>18.415545241107349</v>
       </c>
       <c r="C97" s="4">
-        <v>31.591245363826481</v>
+        <v>11.71471123100401</v>
       </c>
       <c r="D97" s="4">
-        <v>13.42166400596745</v>
+        <v>13.1656065324342</v>
       </c>
       <c r="E97" s="4">
-        <v>4.1596275688496158</v>
+        <v>12.96511129207353</v>
       </c>
       <c r="F97" s="4">
-        <v>2.2609561414596171</v>
+        <v>5.7603437856879056</v>
       </c>
       <c r="G97">
-        <v>133.2735395475938</v>
+        <v>62.021318082306991</v>
       </c>
       <c r="H97">
         <v>0.25</v>
@@ -4164,13 +4164,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K97" s="4">
         <v>1</v>
       </c>
       <c r="L97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -4178,22 +4178,22 @@
         <v>11</v>
       </c>
       <c r="B98" s="4">
-        <v>460.90870869925971</v>
+        <v>209.15317347313021</v>
       </c>
       <c r="C98" s="4">
-        <v>45.851947405586003</v>
+        <v>48.63422448616474</v>
       </c>
       <c r="D98" s="4">
-        <v>10.664258910599649</v>
+        <v>13.15199162736873</v>
       </c>
       <c r="E98" s="4">
-        <v>4.8541179117512447</v>
+        <v>6.9941695309758964</v>
       </c>
       <c r="F98" s="4">
-        <v>2.8342727539105899</v>
+        <v>5.8511935076009252</v>
       </c>
       <c r="G98">
-        <v>525.11330568110725</v>
+        <v>283.78475262524051</v>
       </c>
       <c r="H98">
         <v>0.25</v>
@@ -4202,36 +4202,36 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="K98" s="4">
         <v>1</v>
       </c>
       <c r="L98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="4">
-        <v>20.478365601344311</v>
-      </c>
-      <c r="C99" s="4">
-        <v>9.0258196897702234</v>
-      </c>
-      <c r="D99" s="4">
-        <v>7.5588765316337927</v>
-      </c>
-      <c r="E99" s="4">
-        <v>5.8967404496160949</v>
-      </c>
-      <c r="F99" s="4">
-        <v>2.9269993932031282</v>
+      <c r="B99" s="3">
+        <v>80.638996061647532</v>
+      </c>
+      <c r="C99" s="3">
+        <v>208.68450095866351</v>
+      </c>
+      <c r="D99" s="3">
+        <v>5.5490375718449698</v>
+      </c>
+      <c r="E99" s="3">
+        <v>7.3390372763318084</v>
+      </c>
+      <c r="F99" s="3">
+        <v>6.102321100031368</v>
       </c>
       <c r="G99">
-        <v>45.88680166556756</v>
+        <v>308.31389296851921</v>
       </c>
       <c r="H99">
         <v>0.25</v>
@@ -4240,36 +4240,36 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>1</v>
-      </c>
-      <c r="K99" s="4">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K99" s="3">
+        <v>0</v>
       </c>
       <c r="L99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="4">
-        <v>199.45619868517429</v>
-      </c>
-      <c r="C100" s="4">
-        <v>75.809015947141162</v>
-      </c>
-      <c r="D100" s="4">
-        <v>16.128652819918258</v>
-      </c>
-      <c r="E100" s="4">
-        <v>6.583046757696863</v>
-      </c>
-      <c r="F100" s="4">
-        <v>4.2711446372725188</v>
+      <c r="B100" s="3">
+        <v>29.207329106617809</v>
+      </c>
+      <c r="C100" s="3">
+        <v>10.66113521634626</v>
+      </c>
+      <c r="D100" s="3">
+        <v>6.6960443079058862</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4.0207305552663124</v>
+      </c>
+      <c r="F100" s="3">
+        <v>6.1577705511782241</v>
       </c>
       <c r="G100">
-        <v>302.24805884720308</v>
+        <v>56.743009737314487</v>
       </c>
       <c r="H100">
         <v>0.25</v>
@@ -4278,10 +4278,10 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>5</v>
-      </c>
-      <c r="K100" s="4">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" t="s">
         <v>13</v>
@@ -4292,22 +4292,22 @@
         <v>11</v>
       </c>
       <c r="B101" s="4">
-        <v>42.419172966503517</v>
+        <v>330.75762475366639</v>
       </c>
       <c r="C101" s="4">
-        <v>48.168136465617543</v>
+        <v>63.349572622801652</v>
       </c>
       <c r="D101" s="4">
-        <v>18.578305432382479</v>
+        <v>8.1942629344592746</v>
       </c>
       <c r="E101" s="4">
-        <v>5.0239294156377907</v>
+        <v>8.9732999211735383</v>
       </c>
       <c r="F101" s="4">
-        <v>4.4010011698584517</v>
+        <v>6.4228868319629822</v>
       </c>
       <c r="G101">
-        <v>118.59054544999979</v>
+        <v>417.69764706406391</v>
       </c>
       <c r="H101">
         <v>0.25</v>
@@ -4316,13 +4316,13 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K101" s="4">
         <v>1</v>
       </c>
       <c r="L101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4330,22 +4330,22 @@
         <v>11</v>
       </c>
       <c r="B102" s="4">
-        <v>32.955101849987308</v>
+        <v>35.615955744142099</v>
       </c>
       <c r="C102" s="4">
-        <v>22.20365003439526</v>
+        <v>14.43488853683086</v>
       </c>
       <c r="D102" s="4">
-        <v>27.940083859878619</v>
+        <v>6.2268318284270991</v>
       </c>
       <c r="E102" s="4">
-        <v>12.00831289081955</v>
+        <v>6.1300841047527204</v>
       </c>
       <c r="F102" s="4">
-        <v>4.6074574826721992</v>
+        <v>6.4546751536938523</v>
       </c>
       <c r="G102">
-        <v>99.714606117752936</v>
+        <v>68.862435367846643</v>
       </c>
       <c r="H102">
         <v>0.25</v>
@@ -4354,13 +4354,13 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K102" s="4">
         <v>1</v>
       </c>
       <c r="L102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -4368,22 +4368,22 @@
         <v>11</v>
       </c>
       <c r="B103" s="4">
-        <v>156.0579959456995</v>
+        <v>162.33640073864581</v>
       </c>
       <c r="C103" s="4">
-        <v>26.0302260642565</v>
+        <v>42.47398346588475</v>
       </c>
       <c r="D103" s="4">
-        <v>3.6651978327629049</v>
+        <v>15.96255614171357</v>
       </c>
       <c r="E103" s="4">
-        <v>5.0949159837686206</v>
+        <v>10.664513292254661</v>
       </c>
       <c r="F103" s="4">
-        <v>4.6428727950115034</v>
+        <v>6.5348768345100199</v>
       </c>
       <c r="G103">
-        <v>195.491208621499</v>
+        <v>237.97233047300881</v>
       </c>
       <c r="H103">
         <v>0.25</v>
@@ -4392,13 +4392,13 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K103" s="4">
         <v>1</v>
       </c>
       <c r="L103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -4406,22 +4406,22 @@
         <v>11</v>
       </c>
       <c r="B104" s="4">
-        <v>104.7769605794938</v>
+        <v>59.196026246608831</v>
       </c>
       <c r="C104" s="4">
-        <v>32.023110065944323</v>
+        <v>19.261850164935488</v>
       </c>
       <c r="D104" s="4">
-        <v>14.40115413061686</v>
+        <v>7.7489196850547408</v>
       </c>
       <c r="E104" s="4">
-        <v>12.702175347154499</v>
+        <v>7.2945359715976501</v>
       </c>
       <c r="F104" s="4">
-        <v>4.8708142090648998</v>
+        <v>6.5529908804058019</v>
       </c>
       <c r="G104">
-        <v>168.7742143322744</v>
+        <v>100.0543229486025</v>
       </c>
       <c r="H104">
         <v>0.25</v>
@@ -4430,13 +4430,13 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="K104" s="4">
         <v>1</v>
       </c>
       <c r="L104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -4444,22 +4444,22 @@
         <v>11</v>
       </c>
       <c r="B105" s="4">
-        <v>68.872827785265514</v>
+        <v>133.76432891159121</v>
       </c>
       <c r="C105" s="4">
-        <v>20.06333811767923</v>
+        <v>40.273566429025379</v>
       </c>
       <c r="D105" s="4">
-        <v>4.621096859631165</v>
+        <v>10.725339910001161</v>
       </c>
       <c r="E105" s="4">
-        <v>3.9417283402227259</v>
+        <v>6.564119821695515</v>
       </c>
       <c r="F105" s="4">
-        <v>5.4228929424938714</v>
+        <v>6.5668325858348187</v>
       </c>
       <c r="G105">
-        <v>102.9218840452925</v>
+        <v>197.8941876581481</v>
       </c>
       <c r="H105">
         <v>0.25</v>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K105" s="4">
         <v>1</v>
@@ -4481,23 +4481,23 @@
       <c r="A106" t="s">
         <v>11</v>
       </c>
-      <c r="B106" s="4">
-        <v>61.210304294637019</v>
-      </c>
-      <c r="C106" s="4">
-        <v>13.860131057085621</v>
-      </c>
-      <c r="D106" s="4">
-        <v>5.5492852019461072</v>
-      </c>
-      <c r="E106" s="4">
-        <v>5.6687441110746173</v>
-      </c>
-      <c r="F106" s="4">
-        <v>5.7212990064969178</v>
+      <c r="B106" s="3">
+        <v>8.0002582868115208</v>
+      </c>
+      <c r="C106" s="3">
+        <v>96.580938365881551</v>
+      </c>
+      <c r="D106" s="3">
+        <v>25.367079689751151</v>
+      </c>
+      <c r="E106" s="3">
+        <v>7.505082886188629</v>
+      </c>
+      <c r="F106" s="3">
+        <v>6.7832139497230823</v>
       </c>
       <c r="G106">
-        <v>92.009763671240279</v>
+        <v>144.23657317835591</v>
       </c>
       <c r="H106">
         <v>0.25</v>
@@ -4506,13 +4506,13 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>2</v>
-      </c>
-      <c r="K106" s="4">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K106" s="3">
+        <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -4520,22 +4520,22 @@
         <v>11</v>
       </c>
       <c r="B107" s="4">
-        <v>133.76432891159121</v>
+        <v>36.109276257980113</v>
       </c>
       <c r="C107" s="4">
-        <v>40.273566429025379</v>
+        <v>20.223574654390429</v>
       </c>
       <c r="D107" s="4">
-        <v>10.725339910001161</v>
+        <v>12.597202512621481</v>
       </c>
       <c r="E107" s="4">
-        <v>6.564119821695515</v>
+        <v>9.5724389997561996</v>
       </c>
       <c r="F107" s="4">
-        <v>6.5668325858348187</v>
+        <v>6.8137524321666394</v>
       </c>
       <c r="G107">
-        <v>197.8941876581481</v>
+        <v>85.316244856914835</v>
       </c>
       <c r="H107">
         <v>0.25</v>
@@ -4544,36 +4544,36 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K107" s="4">
         <v>1</v>
       </c>
       <c r="L107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>11</v>
       </c>
-      <c r="B108" s="4">
-        <v>134.26574275247199</v>
-      </c>
-      <c r="C108" s="4">
-        <v>31.919916925015041</v>
-      </c>
-      <c r="D108" s="4">
-        <v>14.052059353711851</v>
-      </c>
-      <c r="E108" s="4">
-        <v>7.7549733125902911</v>
-      </c>
-      <c r="F108" s="4">
-        <v>7.0371373639545993</v>
+      <c r="B108" s="3">
+        <v>135.25282459247609</v>
+      </c>
+      <c r="C108" s="3">
+        <v>228.08121843853121</v>
+      </c>
+      <c r="D108" s="3">
+        <v>8.1697858224302049</v>
+      </c>
+      <c r="E108" s="3">
+        <v>7.546310918270394</v>
+      </c>
+      <c r="F108" s="3">
+        <v>6.9119046659889261</v>
       </c>
       <c r="G108">
-        <v>195.0298297077438</v>
+        <v>385.96204443769682</v>
       </c>
       <c r="H108">
         <v>0.25</v>
@@ -4582,10 +4582,10 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>3</v>
-      </c>
-      <c r="K108" s="4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K108" s="3">
+        <v>0</v>
       </c>
       <c r="L108" t="s">
         <v>13</v>
@@ -4596,22 +4596,22 @@
         <v>11</v>
       </c>
       <c r="B109" s="4">
-        <v>112.03429882840901</v>
+        <v>134.26574275247199</v>
       </c>
       <c r="C109" s="4">
-        <v>21.291162943715481</v>
+        <v>31.919916925015041</v>
       </c>
       <c r="D109" s="4">
-        <v>5.1444682031390832</v>
+        <v>14.052059353711851</v>
       </c>
       <c r="E109" s="4">
-        <v>7.2538688853987212</v>
+        <v>7.7549733125902911</v>
       </c>
       <c r="F109" s="4">
-        <v>7.4166570057445513</v>
+        <v>7.0371373639545993</v>
       </c>
       <c r="G109">
-        <v>153.14045586640691</v>
+        <v>195.0298297077438</v>
       </c>
       <c r="H109">
         <v>0.25</v>
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="K109" s="4">
         <v>1</v>
@@ -4633,23 +4633,23 @@
       <c r="A110" t="s">
         <v>11</v>
       </c>
-      <c r="B110" s="4">
-        <v>51.997409929254957</v>
-      </c>
-      <c r="C110" s="4">
-        <v>20.74392684584279</v>
-      </c>
-      <c r="D110" s="4">
-        <v>23.9607657741319</v>
-      </c>
-      <c r="E110" s="4">
-        <v>10.805571250341741</v>
-      </c>
-      <c r="F110" s="4">
-        <v>7.8555099215783013</v>
+      <c r="B110" s="3">
+        <v>12.513047125981821</v>
+      </c>
+      <c r="C110" s="3">
+        <v>87.772194964313456</v>
+      </c>
+      <c r="D110" s="3">
+        <v>4.5747775016100407</v>
+      </c>
+      <c r="E110" s="3">
+        <v>7.2748019393110113</v>
+      </c>
+      <c r="F110" s="3">
+        <v>7.2019433598904721</v>
       </c>
       <c r="G110">
-        <v>115.3631837211497</v>
+        <v>119.3367648911068</v>
       </c>
       <c r="H110">
         <v>0.25</v>
@@ -4658,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>25</v>
-      </c>
-      <c r="K110" s="4">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K110" s="3">
+        <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -4672,22 +4672,22 @@
         <v>11</v>
       </c>
       <c r="B111" s="4">
-        <v>100.00456042970811</v>
+        <v>112.03429882840901</v>
       </c>
       <c r="C111" s="4">
-        <v>22.719630576662389</v>
+        <v>21.291162943715481</v>
       </c>
       <c r="D111" s="4">
-        <v>13.194545840136181</v>
+        <v>5.1444682031390832</v>
       </c>
       <c r="E111" s="4">
-        <v>9.2423270910288444</v>
+        <v>7.2538688853987212</v>
       </c>
       <c r="F111" s="4">
-        <v>7.9073284190998407</v>
+        <v>7.4166570057445513</v>
       </c>
       <c r="G111">
-        <v>153.0683923566354</v>
+        <v>153.14045586640691</v>
       </c>
       <c r="H111">
         <v>0.25</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K111" s="4">
         <v>1</v>
@@ -4710,22 +4710,22 @@
         <v>11</v>
       </c>
       <c r="B112" s="4">
-        <v>41.509205555551567</v>
+        <v>40.771453841316607</v>
       </c>
       <c r="C112" s="4">
-        <v>15.40188656334918</v>
+        <v>49.00943603447206</v>
       </c>
       <c r="D112" s="4">
-        <v>7.59342368186757</v>
+        <v>18.715736410723199</v>
       </c>
       <c r="E112" s="4">
-        <v>8.8232594759536696</v>
+        <v>7.1746298653745102</v>
       </c>
       <c r="F112" s="4">
-        <v>7.9253268428296266</v>
+        <v>7.6432793719370444</v>
       </c>
       <c r="G112">
-        <v>81.253102119551613</v>
+        <v>123.31453552382349</v>
       </c>
       <c r="H112">
         <v>0.25</v>
@@ -4740,30 +4740,30 @@
         <v>1</v>
       </c>
       <c r="L112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>11</v>
       </c>
-      <c r="B113" s="4">
-        <v>28.5486593949528</v>
-      </c>
-      <c r="C113" s="4">
-        <v>11.311458971864621</v>
-      </c>
-      <c r="D113" s="4">
-        <v>7.910502097149096</v>
-      </c>
-      <c r="E113" s="4">
-        <v>20.914017228790069</v>
-      </c>
-      <c r="F113" s="4">
-        <v>10.37122117208264</v>
+      <c r="B113" s="3">
+        <v>67.411419726009001</v>
+      </c>
+      <c r="C113" s="3">
+        <v>91.188503773579058</v>
+      </c>
+      <c r="D113" s="3">
+        <v>18.89676677592805</v>
+      </c>
+      <c r="E113" s="3">
+        <v>7.1988440188194334</v>
+      </c>
+      <c r="F113" s="3">
+        <v>7.6644114073503964</v>
       </c>
       <c r="G113">
-        <v>79.055858864839223</v>
+        <v>192.359945701686</v>
       </c>
       <c r="H113">
         <v>0.25</v>
@@ -4772,10 +4772,10 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>28</v>
-      </c>
-      <c r="K113" s="4">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K113" s="3">
+        <v>0</v>
       </c>
       <c r="L113" t="s">
         <v>13</v>
@@ -4786,22 +4786,22 @@
         <v>11</v>
       </c>
       <c r="B114" s="4">
-        <v>94.296552165223574</v>
+        <v>51.997409929254957</v>
       </c>
       <c r="C114" s="4">
-        <v>14.8894012683723</v>
+        <v>20.74392684584279</v>
       </c>
       <c r="D114" s="4">
-        <v>16.614758117764911</v>
+        <v>23.9607657741319</v>
       </c>
       <c r="E114" s="4">
-        <v>18.78920663841215</v>
+        <v>10.805571250341741</v>
       </c>
       <c r="F114" s="4">
-        <v>11.61226419421304</v>
+        <v>7.8555099215783013</v>
       </c>
       <c r="G114">
-        <v>156.20218238398601</v>
+        <v>115.3631837211497</v>
       </c>
       <c r="H114">
         <v>0.25</v>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K114" s="4">
         <v>1</v>
@@ -4824,22 +4824,22 @@
         <v>11</v>
       </c>
       <c r="B115" s="4">
-        <v>52.89108290311222</v>
+        <v>100.00456042970811</v>
       </c>
       <c r="C115" s="4">
-        <v>37.657688558839723</v>
+        <v>22.719630576662389</v>
       </c>
       <c r="D115" s="4">
-        <v>29.357309738092109</v>
+        <v>13.194545840136181</v>
       </c>
       <c r="E115" s="4">
-        <v>21.6809342271135</v>
+        <v>9.2423270910288444</v>
       </c>
       <c r="F115" s="4">
-        <v>11.66581367889532</v>
+        <v>7.9073284190998407</v>
       </c>
       <c r="G115">
-        <v>153.25282910605279</v>
+        <v>153.0683923566354</v>
       </c>
       <c r="H115">
         <v>0.25</v>
@@ -4848,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K115" s="4">
         <v>1</v>
@@ -4862,22 +4862,22 @@
         <v>11</v>
       </c>
       <c r="B116" s="4">
-        <v>179.8556599088264</v>
+        <v>41.509205555551567</v>
       </c>
       <c r="C116" s="4">
-        <v>81.714322298995029</v>
+        <v>15.40188656334918</v>
       </c>
       <c r="D116" s="4">
-        <v>58.60261854049697</v>
+        <v>7.59342368186757</v>
       </c>
       <c r="E116" s="4">
-        <v>70.324934364156405</v>
+        <v>8.8232594759536696</v>
       </c>
       <c r="F116" s="4">
-        <v>35.296795721338498</v>
+        <v>7.9253268428296266</v>
       </c>
       <c r="G116">
-        <v>425.79433083381332</v>
+        <v>81.253102119551613</v>
       </c>
       <c r="H116">
         <v>0.25</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K116" s="4">
         <v>1</v>
@@ -4899,23 +4899,23 @@
       <c r="A117" t="s">
         <v>11</v>
       </c>
-      <c r="B117" s="4">
-        <v>178.83466819907241</v>
-      </c>
-      <c r="C117" s="4">
-        <v>77.290318242406229</v>
-      </c>
-      <c r="D117" s="4">
-        <v>25.69571837824035</v>
-      </c>
-      <c r="E117" s="4">
-        <v>25.555691429147831</v>
-      </c>
-      <c r="F117" s="4">
-        <v>36.352770144344923</v>
+      <c r="B117" s="3">
+        <v>181.94475399046169</v>
+      </c>
+      <c r="C117" s="3">
+        <v>52.66420890134038</v>
+      </c>
+      <c r="D117" s="3">
+        <v>20.860980646772362</v>
+      </c>
+      <c r="E117" s="3">
+        <v>16.57017272887057</v>
+      </c>
+      <c r="F117" s="3">
+        <v>7.9566931550348086</v>
       </c>
       <c r="G117">
-        <v>343.72916639321181</v>
+        <v>279.99680942247983</v>
       </c>
       <c r="H117">
         <v>0.25</v>
@@ -4924,10 +4924,10 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>6</v>
-      </c>
-      <c r="K117" s="4">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K117" s="3">
+        <v>0</v>
       </c>
       <c r="L117" t="s">
         <v>13</v>
@@ -4938,22 +4938,22 @@
         <v>11</v>
       </c>
       <c r="B118" s="4">
-        <v>8813.1496332917704</v>
+        <v>176.09166691299399</v>
       </c>
       <c r="C118" s="4">
-        <v>2823.8728271678769</v>
+        <v>37.111946966285181</v>
       </c>
       <c r="D118" s="4">
-        <v>1204.7822415503099</v>
+        <v>14.70236645028834</v>
       </c>
       <c r="E118" s="4">
-        <v>1893.169315209607</v>
+        <v>10.42667890079519</v>
       </c>
       <c r="F118" s="4">
-        <v>904.35794350128447</v>
+        <v>9.5813606193528091</v>
       </c>
       <c r="G118">
-        <v>15639.33196072085</v>
+        <v>247.9140198497156</v>
       </c>
       <c r="H118">
         <v>0.25</v>
@@ -4962,13 +4962,13 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="K118" s="4">
         <v>1</v>
       </c>
       <c r="L118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -4976,22 +4976,22 @@
         <v>11</v>
       </c>
       <c r="B119" s="4">
-        <v>200.44346361564399</v>
+        <v>198.48570539106601</v>
       </c>
       <c r="C119" s="4">
-        <v>43.406973338423413</v>
+        <v>14.7754031999844</v>
       </c>
       <c r="D119" s="4">
-        <v>7.0698062511590658</v>
+        <v>58.916620996719992</v>
       </c>
       <c r="E119" s="4">
-        <v>3.0674476493075131</v>
+        <v>19.269440894249239</v>
       </c>
       <c r="F119" s="4">
-        <v>1.7130977859858509</v>
+        <v>9.7322806012992906</v>
       </c>
       <c r="G119">
-        <v>255.70078864051979</v>
+        <v>301.17945108331901</v>
       </c>
       <c r="H119">
         <v>0.25</v>
@@ -5000,13 +5000,13 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K119" s="4">
         <v>1</v>
       </c>
       <c r="L119" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -5014,22 +5014,22 @@
         <v>11</v>
       </c>
       <c r="B120" s="4">
-        <v>61.083300377795133</v>
+        <v>28.5486593949528</v>
       </c>
       <c r="C120" s="4">
-        <v>46.511110722748079</v>
+        <v>11.311458971864621</v>
       </c>
       <c r="D120" s="4">
-        <v>3.3364070516112281</v>
+        <v>7.910502097149096</v>
       </c>
       <c r="E120" s="4">
-        <v>2.611486366569141</v>
+        <v>20.914017228790069</v>
       </c>
       <c r="F120" s="4">
-        <v>2.3783928461746151</v>
+        <v>10.37122117208264</v>
       </c>
       <c r="G120">
-        <v>115.9206973648982</v>
+        <v>79.055858864839223</v>
       </c>
       <c r="H120">
         <v>0.25</v>
@@ -5044,30 +5044,30 @@
         <v>1</v>
       </c>
       <c r="L120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>11</v>
       </c>
-      <c r="B121" s="4">
-        <v>53.909811504158441</v>
-      </c>
-      <c r="C121" s="4">
-        <v>23.74798415524284</v>
-      </c>
-      <c r="D121" s="4">
-        <v>11.129574018692169</v>
-      </c>
-      <c r="E121" s="4">
-        <v>3.8197670838209592</v>
-      </c>
-      <c r="F121" s="4">
-        <v>2.4960360791208558</v>
+      <c r="B121" s="3">
+        <v>11.60878205115254</v>
+      </c>
+      <c r="C121" s="3">
+        <v>149.99160785410041</v>
+      </c>
+      <c r="D121" s="3">
+        <v>30.75879643044755</v>
+      </c>
+      <c r="E121" s="3">
+        <v>7.9295680383965443</v>
+      </c>
+      <c r="F121" s="3">
+        <v>10.512743913952731</v>
       </c>
       <c r="G121">
-        <v>95.103172841035246</v>
+        <v>210.80149828804969</v>
       </c>
       <c r="H121">
         <v>0.25</v>
@@ -5076,13 +5076,13 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>14</v>
-      </c>
-      <c r="K121" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K121" s="3">
+        <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -5090,22 +5090,22 @@
         <v>11</v>
       </c>
       <c r="B122" s="4">
-        <v>84.441989334612373</v>
+        <v>1827.833958187475</v>
       </c>
       <c r="C122" s="4">
-        <v>11.30158106540107</v>
+        <v>299.7614257948951</v>
       </c>
       <c r="D122" s="4">
-        <v>4.9492480998514141</v>
+        <v>69.657418318638278</v>
       </c>
       <c r="E122" s="4">
-        <v>4.0176782008956504</v>
+        <v>29.001398708736009</v>
       </c>
       <c r="F122" s="4">
-        <v>2.7906677617758922</v>
+        <v>11.10845803994043</v>
       </c>
       <c r="G122">
-        <v>107.50116446253639</v>
+        <v>2237.3626590496851</v>
       </c>
       <c r="H122">
         <v>0.25</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K122" s="4">
         <v>1</v>
@@ -5128,22 +5128,22 @@
         <v>11</v>
       </c>
       <c r="B123" s="4">
-        <v>123.0723087031496</v>
+        <v>1624.381491873864</v>
       </c>
       <c r="C123" s="4">
-        <v>34.933187232725231</v>
+        <v>281.50971721991829</v>
       </c>
       <c r="D123" s="4">
-        <v>6.4862173727278147</v>
+        <v>43.762421765543387</v>
       </c>
       <c r="E123" s="4">
-        <v>5.289819685390758</v>
+        <v>22.09744363260808</v>
       </c>
       <c r="F123" s="4">
-        <v>3.9862240460062019</v>
+        <v>11.178717561529989</v>
       </c>
       <c r="G123">
-        <v>173.76775703999959</v>
+        <v>1982.929792053463</v>
       </c>
       <c r="H123">
         <v>0.25</v>
@@ -5152,13 +5152,13 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K123" s="4">
         <v>1</v>
       </c>
       <c r="L123" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -5166,22 +5166,22 @@
         <v>11</v>
       </c>
       <c r="B124" s="4">
-        <v>192.96147864763981</v>
+        <v>370.55343386504887</v>
       </c>
       <c r="C124" s="4">
-        <v>48.30875997467291</v>
+        <v>115.82701468955069</v>
       </c>
       <c r="D124" s="4">
-        <v>7.1217682590739759</v>
+        <v>18.61483780497365</v>
       </c>
       <c r="E124" s="4">
-        <v>4.1758167141183344</v>
+        <v>9.2187216990653962</v>
       </c>
       <c r="F124" s="4">
-        <v>4.1858918930551647</v>
+        <v>11.214035835100701</v>
       </c>
       <c r="G124">
-        <v>256.75371548855998</v>
+        <v>525.42804389373941</v>
       </c>
       <c r="H124">
         <v>0.25</v>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K124" s="4">
         <v>1</v>
@@ -5204,22 +5204,22 @@
         <v>11</v>
       </c>
       <c r="B125" s="4">
-        <v>20.287379308229891</v>
+        <v>16.829548346588581</v>
       </c>
       <c r="C125" s="4">
-        <v>11.49035886777094</v>
+        <v>8.4395017318649863</v>
       </c>
       <c r="D125" s="4">
-        <v>6.6942031119778358</v>
+        <v>8.2198903231426517</v>
       </c>
       <c r="E125" s="4">
-        <v>5.1501763210756586</v>
+        <v>17.846005988731459</v>
       </c>
       <c r="F125" s="4">
-        <v>4.5524473023091936</v>
+        <v>11.36120372862244</v>
       </c>
       <c r="G125">
-        <v>48.174564911363532</v>
+        <v>62.696150118950108</v>
       </c>
       <c r="H125">
         <v>0.25</v>
@@ -5228,13 +5228,13 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="K125" s="4">
         <v>1</v>
       </c>
       <c r="L125" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -5242,22 +5242,22 @@
         <v>11</v>
       </c>
       <c r="B126" s="4">
-        <v>98.633528230646533</v>
+        <v>94.296552165223574</v>
       </c>
       <c r="C126" s="4">
-        <v>29.79622677171437</v>
+        <v>14.8894012683723</v>
       </c>
       <c r="D126" s="4">
-        <v>13.958032354788671</v>
+        <v>16.614758117764911</v>
       </c>
       <c r="E126" s="4">
-        <v>12.912823371141121</v>
+        <v>18.78920663841215</v>
       </c>
       <c r="F126" s="4">
-        <v>4.8279755434833493</v>
+        <v>11.61226419421304</v>
       </c>
       <c r="G126">
-        <v>160.12858627177411</v>
+        <v>156.20218238398601</v>
       </c>
       <c r="H126">
         <v>0.25</v>
@@ -5266,13 +5266,13 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K126" s="4">
         <v>1</v>
       </c>
       <c r="L126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -5280,22 +5280,22 @@
         <v>11</v>
       </c>
       <c r="B127" s="4">
-        <v>54.43315878742871</v>
+        <v>52.89108290311222</v>
       </c>
       <c r="C127" s="4">
-        <v>16.860058510578199</v>
+        <v>37.657688558839723</v>
       </c>
       <c r="D127" s="4">
-        <v>8.2926685049167688</v>
+        <v>29.357309738092109</v>
       </c>
       <c r="E127" s="4">
-        <v>8.6354342254790151</v>
+        <v>21.6809342271135</v>
       </c>
       <c r="F127" s="4">
-        <v>4.9048127625091666</v>
+        <v>11.66581367889532</v>
       </c>
       <c r="G127">
-        <v>93.126132790911868</v>
+        <v>153.25282910605279</v>
       </c>
       <c r="H127">
         <v>0.25</v>
@@ -5304,36 +5304,36 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K127" s="4">
         <v>1</v>
       </c>
       <c r="L127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>11</v>
       </c>
-      <c r="B128" s="4">
-        <v>9840.9264335819425</v>
-      </c>
-      <c r="C128" s="4">
-        <v>1003.226231407927</v>
-      </c>
-      <c r="D128" s="4">
-        <v>71.506029529541138</v>
-      </c>
-      <c r="E128" s="4">
-        <v>10.37102086039345</v>
-      </c>
-      <c r="F128" s="4">
-        <v>4.9389733306658758</v>
+      <c r="B128" s="3">
+        <v>9.8281262261727864</v>
+      </c>
+      <c r="C128" s="3">
+        <v>63.800350993810127</v>
+      </c>
+      <c r="D128" s="3">
+        <v>5.5398545345823154</v>
+      </c>
+      <c r="E128" s="3">
+        <v>8.5510736294340006</v>
+      </c>
+      <c r="F128" s="3">
+        <v>12.906008277374021</v>
       </c>
       <c r="G128">
-        <v>10930.968688710471</v>
+        <v>100.6254136613732</v>
       </c>
       <c r="H128">
         <v>0.25</v>
@@ -5342,36 +5342,36 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>17</v>
-      </c>
-      <c r="K128" s="4">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K128" s="3">
+        <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
-      <c r="B129" s="4">
-        <v>91.90032007639941</v>
-      </c>
-      <c r="C129" s="4">
-        <v>34.250004808011859</v>
-      </c>
-      <c r="D129" s="4">
-        <v>36.374704511181953</v>
-      </c>
-      <c r="E129" s="4">
-        <v>14.637926205657459</v>
-      </c>
-      <c r="F129" s="4">
-        <v>5.0991044883552634</v>
+      <c r="B129" s="3">
+        <v>154.8053906820501</v>
+      </c>
+      <c r="C129" s="3">
+        <v>66.674247008231077</v>
+      </c>
+      <c r="D129" s="3">
+        <v>24.680889355063389</v>
+      </c>
+      <c r="E129" s="3">
+        <v>18.38178066324226</v>
+      </c>
+      <c r="F129" s="3">
+        <v>14.838159617643971</v>
       </c>
       <c r="G129">
-        <v>182.26206008960591</v>
+        <v>279.38046732623081</v>
       </c>
       <c r="H129">
         <v>0.25</v>
@@ -5380,10 +5380,10 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>22</v>
-      </c>
-      <c r="K129" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K129" s="3">
+        <v>0</v>
       </c>
       <c r="L129" t="s">
         <v>14</v>
@@ -5393,23 +5393,23 @@
       <c r="A130" t="s">
         <v>11</v>
       </c>
-      <c r="B130" s="4">
-        <v>57.899300719167229</v>
-      </c>
-      <c r="C130" s="4">
-        <v>18.806287405263429</v>
-      </c>
-      <c r="D130" s="4">
-        <v>16.189366163094331</v>
-      </c>
-      <c r="E130" s="4">
-        <v>8.3749036218432664</v>
-      </c>
-      <c r="F130" s="4">
-        <v>5.1529538222296427</v>
+      <c r="B130" s="3">
+        <v>691.646858877878</v>
+      </c>
+      <c r="C130" s="3">
+        <v>120.6793576909495</v>
+      </c>
+      <c r="D130" s="3">
+        <v>20.538092215793561</v>
+      </c>
+      <c r="E130" s="3">
+        <v>25.353299969143851</v>
+      </c>
+      <c r="F130" s="3">
+        <v>14.97236859099665</v>
       </c>
       <c r="G130">
-        <v>106.4228117315979</v>
+        <v>873.18997734476136</v>
       </c>
       <c r="H130">
         <v>0.25</v>
@@ -5418,10 +5418,10 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>24</v>
-      </c>
-      <c r="K130" s="4">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="K130" s="3">
+        <v>0</v>
       </c>
       <c r="L130" t="s">
         <v>14</v>
@@ -5432,22 +5432,22 @@
         <v>11</v>
       </c>
       <c r="B131" s="4">
-        <v>231.6823727423409</v>
+        <v>21.418052144107431</v>
       </c>
       <c r="C131" s="4">
-        <v>87.395043801273118</v>
+        <v>46.095162101639289</v>
       </c>
       <c r="D131" s="4">
-        <v>18.73730154701974</v>
+        <v>14.85546526992416</v>
       </c>
       <c r="E131" s="4">
-        <v>8.0192289892621194</v>
+        <v>13.33381547773944</v>
       </c>
       <c r="F131" s="4">
-        <v>5.3521631787143713</v>
+        <v>15.9982138551249</v>
       </c>
       <c r="G131">
-        <v>351.18611025861031</v>
+        <v>111.7007088485352</v>
       </c>
       <c r="H131">
         <v>0.25</v>
@@ -5456,36 +5456,36 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K131" s="4">
         <v>1</v>
       </c>
       <c r="L131" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>11</v>
       </c>
-      <c r="B132" s="4">
-        <v>209.15317347313021</v>
-      </c>
-      <c r="C132" s="4">
-        <v>48.63422448616474</v>
-      </c>
-      <c r="D132" s="4">
-        <v>13.15199162736873</v>
-      </c>
-      <c r="E132" s="4">
-        <v>6.9941695309758964</v>
-      </c>
-      <c r="F132" s="4">
-        <v>5.8511935076009252</v>
+      <c r="B132" s="3">
+        <v>1967.7680676172349</v>
+      </c>
+      <c r="C132" s="3">
+        <v>257.77398406220408</v>
+      </c>
+      <c r="D132" s="3">
+        <v>111.20915990665149</v>
+      </c>
+      <c r="E132" s="3">
+        <v>50.519247715097833</v>
+      </c>
+      <c r="F132" s="3">
+        <v>18.608184485772199</v>
       </c>
       <c r="G132">
-        <v>283.78475262524051</v>
+        <v>2405.8786437869599</v>
       </c>
       <c r="H132">
         <v>0.25</v>
@@ -5494,36 +5494,36 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <v>7</v>
-      </c>
-      <c r="K132" s="4">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K132" s="3">
+        <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>11</v>
       </c>
-      <c r="B133" s="4">
-        <v>330.75762475366639</v>
-      </c>
-      <c r="C133" s="4">
-        <v>63.349572622801652</v>
-      </c>
-      <c r="D133" s="4">
-        <v>8.1942629344592746</v>
-      </c>
-      <c r="E133" s="4">
-        <v>8.9732999211735383</v>
-      </c>
-      <c r="F133" s="4">
-        <v>6.4228868319629822</v>
+      <c r="B133" s="3">
+        <v>10.84708838790424</v>
+      </c>
+      <c r="C133" s="3">
+        <v>77.024879796395879</v>
+      </c>
+      <c r="D133" s="3">
+        <v>6.7680464774664113</v>
+      </c>
+      <c r="E133" s="3">
+        <v>10.024135588070219</v>
+      </c>
+      <c r="F133" s="3">
+        <v>20.336893965483551</v>
       </c>
       <c r="G133">
-        <v>417.69764706406391</v>
+        <v>125.00104421532031</v>
       </c>
       <c r="H133">
         <v>0.25</v>
@@ -5534,8 +5534,8 @@
       <c r="J133">
         <v>23</v>
       </c>
-      <c r="K133" s="4">
-        <v>1</v>
+      <c r="K133" s="3">
+        <v>0</v>
       </c>
       <c r="L133" t="s">
         <v>14</v>
@@ -5546,22 +5546,22 @@
         <v>11</v>
       </c>
       <c r="B134" s="4">
-        <v>35.615955744142099</v>
+        <v>800.87027921171739</v>
       </c>
       <c r="C134" s="4">
-        <v>14.43488853683086</v>
+        <v>155.8555607916752</v>
       </c>
       <c r="D134" s="4">
-        <v>6.2268318284270991</v>
+        <v>51.650419601526778</v>
       </c>
       <c r="E134" s="4">
-        <v>6.1300841047527204</v>
+        <v>21.612719911901291</v>
       </c>
       <c r="F134" s="4">
-        <v>6.4546751536938523</v>
+        <v>21.358882009509401</v>
       </c>
       <c r="G134">
-        <v>68.862435367846643</v>
+        <v>1051.34786152633</v>
       </c>
       <c r="H134">
         <v>0.25</v>
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K134" s="4">
         <v>1</v>
@@ -5584,22 +5584,22 @@
         <v>11</v>
       </c>
       <c r="B135" s="4">
-        <v>59.196026246608831</v>
+        <v>1407.4353978057591</v>
       </c>
       <c r="C135" s="4">
-        <v>19.261850164935488</v>
+        <v>262.10670876952872</v>
       </c>
       <c r="D135" s="4">
-        <v>7.7489196850547408</v>
+        <v>70.985653454401472</v>
       </c>
       <c r="E135" s="4">
-        <v>7.2945359715976501</v>
+        <v>39.339210846734943</v>
       </c>
       <c r="F135" s="4">
-        <v>6.5529908804058019</v>
+        <v>21.543073002087699</v>
       </c>
       <c r="G135">
-        <v>100.0543229486025</v>
+        <v>1801.4100438785119</v>
       </c>
       <c r="H135">
         <v>0.25</v>
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K135" s="4">
         <v>1</v>
@@ -5622,22 +5622,22 @@
         <v>11</v>
       </c>
       <c r="B136" s="4">
-        <v>40.771453841316607</v>
+        <v>415.50693591671472</v>
       </c>
       <c r="C136" s="4">
-        <v>49.00943603447206</v>
+        <v>91.288032755151363</v>
       </c>
       <c r="D136" s="4">
-        <v>18.715736410723199</v>
+        <v>47.919472204404457</v>
       </c>
       <c r="E136" s="4">
-        <v>7.1746298653745102</v>
+        <v>20.611163309119299</v>
       </c>
       <c r="F136" s="4">
-        <v>7.6432793719370444</v>
+        <v>24.761727854977629</v>
       </c>
       <c r="G136">
-        <v>123.31453552382349</v>
+        <v>600.08733204036753</v>
       </c>
       <c r="H136">
         <v>0.25</v>
@@ -5646,13 +5646,13 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K136" s="4">
         <v>1</v>
       </c>
       <c r="L136" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -5660,22 +5660,22 @@
         <v>11</v>
       </c>
       <c r="B137" s="4">
-        <v>176.09166691299399</v>
+        <v>179.8556599088264</v>
       </c>
       <c r="C137" s="4">
-        <v>37.111946966285181</v>
+        <v>81.714322298995029</v>
       </c>
       <c r="D137" s="4">
-        <v>14.70236645028834</v>
+        <v>58.60261854049697</v>
       </c>
       <c r="E137" s="4">
-        <v>10.42667890079519</v>
+        <v>70.324934364156405</v>
       </c>
       <c r="F137" s="4">
-        <v>9.5813606193528091</v>
+        <v>35.296795721338498</v>
       </c>
       <c r="G137">
-        <v>247.9140198497156</v>
+        <v>425.79433083381332</v>
       </c>
       <c r="H137">
         <v>0.25</v>
@@ -5684,13 +5684,13 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K137" s="4">
         <v>1</v>
       </c>
       <c r="L137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -5698,22 +5698,22 @@
         <v>11</v>
       </c>
       <c r="B138" s="4">
-        <v>1827.833958187475</v>
+        <v>178.83466819907241</v>
       </c>
       <c r="C138" s="4">
-        <v>299.7614257948951</v>
+        <v>77.290318242406229</v>
       </c>
       <c r="D138" s="4">
-        <v>69.657418318638278</v>
+        <v>25.69571837824035</v>
       </c>
       <c r="E138" s="4">
-        <v>29.001398708736009</v>
+        <v>25.555691429147831</v>
       </c>
       <c r="F138" s="4">
-        <v>11.10845803994043</v>
+        <v>36.352770144344923</v>
       </c>
       <c r="G138">
-        <v>2237.3626590496851</v>
+        <v>343.72916639321181</v>
       </c>
       <c r="H138">
         <v>0.25</v>
@@ -5722,36 +5722,36 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="K138" s="4">
         <v>1</v>
       </c>
       <c r="L138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>11</v>
       </c>
-      <c r="B139" s="4">
-        <v>370.55343386504887</v>
-      </c>
-      <c r="C139" s="4">
-        <v>115.82701468955069</v>
-      </c>
-      <c r="D139" s="4">
-        <v>18.61483780497365</v>
-      </c>
-      <c r="E139" s="4">
-        <v>9.2187216990653962</v>
-      </c>
-      <c r="F139" s="4">
-        <v>11.214035835100701</v>
+      <c r="B139" s="3">
+        <v>78.914781174259019</v>
+      </c>
+      <c r="C139" s="3">
+        <v>39.326835933430473</v>
+      </c>
+      <c r="D139" s="3">
+        <v>67.853694229196975</v>
+      </c>
+      <c r="E139" s="3">
+        <v>34.959288277585237</v>
+      </c>
+      <c r="F139" s="3">
+        <v>44.26252245163807</v>
       </c>
       <c r="G139">
-        <v>525.42804389373941</v>
+        <v>265.31712206610968</v>
       </c>
       <c r="H139">
         <v>0.25</v>
@@ -5760,36 +5760,36 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>4</v>
-      </c>
-      <c r="K139" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K139" s="3">
+        <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>11</v>
       </c>
-      <c r="B140" s="4">
-        <v>800.87027921171739</v>
-      </c>
-      <c r="C140" s="4">
-        <v>155.8555607916752</v>
-      </c>
-      <c r="D140" s="4">
-        <v>51.650419601526778</v>
-      </c>
-      <c r="E140" s="4">
-        <v>21.612719911901291</v>
-      </c>
-      <c r="F140" s="4">
-        <v>21.358882009509401</v>
+      <c r="B140" s="3">
+        <v>3592.228667497629</v>
+      </c>
+      <c r="C140" s="3">
+        <v>624.41179045869444</v>
+      </c>
+      <c r="D140" s="3">
+        <v>208.8868015261977</v>
+      </c>
+      <c r="E140" s="3">
+        <v>291.28989666992408</v>
+      </c>
+      <c r="F140" s="3">
+        <v>87.345748303046179</v>
       </c>
       <c r="G140">
-        <v>1051.34786152633</v>
+        <v>4804.1629044554911</v>
       </c>
       <c r="H140">
         <v>0.25</v>
@@ -5798,10 +5798,10 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>19</v>
-      </c>
-      <c r="K140" s="4">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K140" s="3">
+        <v>0</v>
       </c>
       <c r="L140" t="s">
         <v>14</v>
@@ -5812,22 +5812,22 @@
         <v>11</v>
       </c>
       <c r="B141" s="4">
-        <v>1407.4353978057591</v>
+        <v>817.06773367770393</v>
       </c>
       <c r="C141" s="4">
-        <v>262.10670876952872</v>
+        <v>179.1724301318275</v>
       </c>
       <c r="D141" s="4">
-        <v>70.985653454401472</v>
+        <v>40.459071932709811</v>
       </c>
       <c r="E141" s="4">
-        <v>39.339210846734943</v>
+        <v>40.096904229477502</v>
       </c>
       <c r="F141" s="4">
-        <v>21.543073002087699</v>
+        <v>91.095237968394443</v>
       </c>
       <c r="G141">
-        <v>1801.4100438785119</v>
+        <v>1167.891377940113</v>
       </c>
       <c r="H141">
         <v>0.25</v>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K141" s="4">
         <v>1</v>
@@ -5850,22 +5850,22 @@
         <v>11</v>
       </c>
       <c r="B142" s="4">
-        <v>817.06773367770393</v>
+        <v>192.00981373326761</v>
       </c>
       <c r="C142" s="4">
-        <v>179.1724301318275</v>
+        <v>59.574103134425378</v>
       </c>
       <c r="D142" s="4">
-        <v>40.459071932709811</v>
+        <v>22.01392318352708</v>
       </c>
       <c r="E142" s="4">
-        <v>40.096904229477502</v>
+        <v>60.119041147042417</v>
       </c>
       <c r="F142" s="4">
-        <v>91.095237968394443</v>
+        <v>130.25052659434311</v>
       </c>
       <c r="G142">
-        <v>1167.891377940113</v>
+        <v>463.96740779260568</v>
       </c>
       <c r="H142">
         <v>0.25</v>
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K142" s="4">
         <v>1</v>
@@ -5888,22 +5888,22 @@
         <v>11</v>
       </c>
       <c r="B143" s="4">
-        <v>192.00981373326761</v>
+        <v>758.8669464666915</v>
       </c>
       <c r="C143" s="4">
-        <v>59.574103134425378</v>
+        <v>269.60990481566688</v>
       </c>
       <c r="D143" s="4">
-        <v>22.01392318352708</v>
+        <v>161.8579627446924</v>
       </c>
       <c r="E143" s="4">
-        <v>60.119041147042417</v>
+        <v>245.31631731518439</v>
       </c>
       <c r="F143" s="4">
-        <v>130.25052659434311</v>
+        <v>201.71534739424331</v>
       </c>
       <c r="G143">
-        <v>463.96740779260568</v>
+        <v>1637.366478736478</v>
       </c>
       <c r="H143">
         <v>0.25</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K143" s="4">
         <v>1</v>
@@ -5926,22 +5926,22 @@
         <v>11</v>
       </c>
       <c r="B144" s="4">
-        <v>758.8669464666915</v>
+        <v>2202.9896712542959</v>
       </c>
       <c r="C144" s="4">
-        <v>269.60990481566688</v>
+        <v>273.88359448808728</v>
       </c>
       <c r="D144" s="4">
-        <v>161.8579627446924</v>
+        <v>140.10479074076511</v>
       </c>
       <c r="E144" s="4">
-        <v>245.31631731518439</v>
+        <v>127.702099022642</v>
       </c>
       <c r="F144" s="4">
-        <v>201.71534739424331</v>
+        <v>837.9091479600188</v>
       </c>
       <c r="G144">
-        <v>1637.366478736478</v>
+        <v>3582.5893034658088</v>
       </c>
       <c r="H144">
         <v>0.25</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K144" s="4">
         <v>1</v>
@@ -5964,22 +5964,22 @@
         <v>11</v>
       </c>
       <c r="B145" s="4">
-        <v>2202.9896712542959</v>
+        <v>8813.1496332917704</v>
       </c>
       <c r="C145" s="4">
-        <v>273.88359448808728</v>
+        <v>2823.8728271678769</v>
       </c>
       <c r="D145" s="4">
-        <v>140.10479074076511</v>
+        <v>1204.7822415503099</v>
       </c>
       <c r="E145" s="4">
-        <v>127.702099022642</v>
+        <v>1893.169315209607</v>
       </c>
       <c r="F145" s="4">
-        <v>837.9091479600188</v>
+        <v>904.35794350128447</v>
       </c>
       <c r="G145">
-        <v>3582.5893034658088</v>
+        <v>15639.33196072085</v>
       </c>
       <c r="H145">
         <v>0.25</v>
@@ -5988,16 +5988,19 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K145" s="4">
         <v>1</v>
       </c>
       <c r="L145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L146">
+    <sortCondition ref="F2:F146"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>